--- a/processed data/Total_Exam_Time_Analysis_2024.xlsx
+++ b/processed data/Total_Exam_Time_Analysis_2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K570"/>
+  <dimension ref="A1:M570"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,6 +493,16 @@
           <t>Total_time_used_mins_without_extra</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Remaining_time_mins_without_extra</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>%Time_used_without_extra</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -528,6 +538,12 @@
       <c r="K2" t="n">
         <v>235.75</v>
       </c>
+      <c r="L2" t="n">
+        <v>-25.75</v>
+      </c>
+      <c r="M2" t="n">
+        <v>112.26</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -563,6 +579,12 @@
       <c r="K3" t="n">
         <v>228.83</v>
       </c>
+      <c r="L3" t="n">
+        <v>-18.83</v>
+      </c>
+      <c r="M3" t="n">
+        <v>108.97</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -598,6 +620,12 @@
       <c r="K4" t="n">
         <v>226.48</v>
       </c>
+      <c r="L4" t="n">
+        <v>-16.48</v>
+      </c>
+      <c r="M4" t="n">
+        <v>107.85</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -633,6 +661,12 @@
       <c r="K5" t="n">
         <v>117.83</v>
       </c>
+      <c r="L5" t="n">
+        <v>92.17</v>
+      </c>
+      <c r="M5" t="n">
+        <v>56.11</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -666,7 +700,13 @@
         <v>45637.73951388889</v>
       </c>
       <c r="K6" t="n">
-        <v>254.83</v>
+        <v>224.83</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-14.83</v>
+      </c>
+      <c r="M6" t="n">
+        <v>107.06</v>
       </c>
     </row>
     <row r="7">
@@ -703,6 +743,12 @@
       <c r="K7" t="n">
         <v>239.88</v>
       </c>
+      <c r="L7" t="n">
+        <v>-29.88</v>
+      </c>
+      <c r="M7" t="n">
+        <v>114.23</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -738,6 +784,12 @@
       <c r="K8" t="n">
         <v>219.72</v>
       </c>
+      <c r="L8" t="n">
+        <v>-9.720000000000001</v>
+      </c>
+      <c r="M8" t="n">
+        <v>104.63</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -773,6 +825,12 @@
       <c r="K9" t="n">
         <v>219.08</v>
       </c>
+      <c r="L9" t="n">
+        <v>-9.08</v>
+      </c>
+      <c r="M9" t="n">
+        <v>104.32</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -808,6 +866,12 @@
       <c r="K10" t="n">
         <v>239.95</v>
       </c>
+      <c r="L10" t="n">
+        <v>-29.95</v>
+      </c>
+      <c r="M10" t="n">
+        <v>114.26</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -843,6 +907,12 @@
       <c r="K11" t="n">
         <v>230.25</v>
       </c>
+      <c r="L11" t="n">
+        <v>-20.25</v>
+      </c>
+      <c r="M11" t="n">
+        <v>109.64</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -878,6 +948,12 @@
       <c r="K12" t="n">
         <v>188.5</v>
       </c>
+      <c r="L12" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>89.76000000000001</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -913,6 +989,12 @@
       <c r="K13" t="n">
         <v>212.08</v>
       </c>
+      <c r="L13" t="n">
+        <v>-2.08</v>
+      </c>
+      <c r="M13" t="n">
+        <v>100.99</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -948,6 +1030,12 @@
       <c r="K14" t="n">
         <v>163.53</v>
       </c>
+      <c r="L14" t="n">
+        <v>46.47</v>
+      </c>
+      <c r="M14" t="n">
+        <v>77.87</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -983,6 +1071,12 @@
       <c r="K15" t="n">
         <v>234.58</v>
       </c>
+      <c r="L15" t="n">
+        <v>-24.58</v>
+      </c>
+      <c r="M15" t="n">
+        <v>111.7</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1018,6 +1112,12 @@
       <c r="K16" t="n">
         <v>239.93</v>
       </c>
+      <c r="L16" t="n">
+        <v>-29.93</v>
+      </c>
+      <c r="M16" t="n">
+        <v>114.25</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1053,6 +1153,12 @@
       <c r="K17" t="n">
         <v>186.93</v>
       </c>
+      <c r="L17" t="n">
+        <v>23.07</v>
+      </c>
+      <c r="M17" t="n">
+        <v>89.01000000000001</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1088,6 +1194,12 @@
       <c r="K18" t="n">
         <v>110.95</v>
       </c>
+      <c r="L18" t="n">
+        <v>99.05</v>
+      </c>
+      <c r="M18" t="n">
+        <v>52.83</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1123,6 +1235,12 @@
       <c r="K19" t="n">
         <v>232.72</v>
       </c>
+      <c r="L19" t="n">
+        <v>-22.72</v>
+      </c>
+      <c r="M19" t="n">
+        <v>110.82</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1158,6 +1276,12 @@
       <c r="K20" t="n">
         <v>235.17</v>
       </c>
+      <c r="L20" t="n">
+        <v>-25.17</v>
+      </c>
+      <c r="M20" t="n">
+        <v>111.99</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1193,6 +1317,12 @@
       <c r="K21" t="n">
         <v>173.28</v>
       </c>
+      <c r="L21" t="n">
+        <v>36.72</v>
+      </c>
+      <c r="M21" t="n">
+        <v>82.51000000000001</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1228,6 +1358,12 @@
       <c r="K22" t="n">
         <v>240.05</v>
       </c>
+      <c r="L22" t="n">
+        <v>-30.05</v>
+      </c>
+      <c r="M22" t="n">
+        <v>114.31</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1263,6 +1399,12 @@
       <c r="K23" t="n">
         <v>236.2</v>
       </c>
+      <c r="L23" t="n">
+        <v>-26.2</v>
+      </c>
+      <c r="M23" t="n">
+        <v>112.48</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1298,6 +1440,12 @@
       <c r="K24" t="n">
         <v>180.97</v>
       </c>
+      <c r="L24" t="n">
+        <v>29.03</v>
+      </c>
+      <c r="M24" t="n">
+        <v>86.18000000000001</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1333,6 +1481,12 @@
       <c r="K25" t="n">
         <v>227.32</v>
       </c>
+      <c r="L25" t="n">
+        <v>-17.32</v>
+      </c>
+      <c r="M25" t="n">
+        <v>108.25</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1368,6 +1522,12 @@
       <c r="K26" t="n">
         <v>240.33</v>
       </c>
+      <c r="L26" t="n">
+        <v>-30.33</v>
+      </c>
+      <c r="M26" t="n">
+        <v>114.44</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1403,6 +1563,12 @@
       <c r="K27" t="n">
         <v>144.42</v>
       </c>
+      <c r="L27" t="n">
+        <v>65.58</v>
+      </c>
+      <c r="M27" t="n">
+        <v>68.77</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1438,6 +1604,12 @@
       <c r="K28" t="n">
         <v>239.03</v>
       </c>
+      <c r="L28" t="n">
+        <v>-29.03</v>
+      </c>
+      <c r="M28" t="n">
+        <v>113.82</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1473,6 +1645,12 @@
       <c r="K29" t="n">
         <v>180.82</v>
       </c>
+      <c r="L29" t="n">
+        <v>29.18</v>
+      </c>
+      <c r="M29" t="n">
+        <v>86.09999999999999</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1508,6 +1686,12 @@
       <c r="K30" t="n">
         <v>203.1</v>
       </c>
+      <c r="L30" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="M30" t="n">
+        <v>96.70999999999999</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1543,6 +1727,12 @@
       <c r="K31" t="n">
         <v>231.63</v>
       </c>
+      <c r="L31" t="n">
+        <v>-21.63</v>
+      </c>
+      <c r="M31" t="n">
+        <v>110.3</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1576,7 +1766,13 @@
         <v>45637.7500462963</v>
       </c>
       <c r="K32" t="n">
-        <v>270.05</v>
+        <v>240.05</v>
+      </c>
+      <c r="L32" t="n">
+        <v>-30.05</v>
+      </c>
+      <c r="M32" t="n">
+        <v>114.31</v>
       </c>
     </row>
     <row r="33">
@@ -1613,6 +1809,12 @@
       <c r="K33" t="n">
         <v>133.45</v>
       </c>
+      <c r="L33" t="n">
+        <v>76.55</v>
+      </c>
+      <c r="M33" t="n">
+        <v>63.55</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1648,6 +1850,12 @@
       <c r="K34" t="n">
         <v>240.12</v>
       </c>
+      <c r="L34" t="n">
+        <v>-30.12</v>
+      </c>
+      <c r="M34" t="n">
+        <v>114.34</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1683,6 +1891,12 @@
       <c r="K35" t="n">
         <v>179.78</v>
       </c>
+      <c r="L35" t="n">
+        <v>30.22</v>
+      </c>
+      <c r="M35" t="n">
+        <v>85.61</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1718,6 +1932,12 @@
       <c r="K36" t="n">
         <v>181.75</v>
       </c>
+      <c r="L36" t="n">
+        <v>28.25</v>
+      </c>
+      <c r="M36" t="n">
+        <v>86.55</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1753,6 +1973,12 @@
       <c r="K37" t="n">
         <v>116.67</v>
       </c>
+      <c r="L37" t="n">
+        <v>93.33</v>
+      </c>
+      <c r="M37" t="n">
+        <v>55.56</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1788,6 +2014,12 @@
       <c r="K38" t="n">
         <v>239.57</v>
       </c>
+      <c r="L38" t="n">
+        <v>-29.57</v>
+      </c>
+      <c r="M38" t="n">
+        <v>114.08</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1823,6 +2055,12 @@
       <c r="K39" t="n">
         <v>239.95</v>
       </c>
+      <c r="L39" t="n">
+        <v>-29.95</v>
+      </c>
+      <c r="M39" t="n">
+        <v>114.26</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1858,6 +2096,12 @@
       <c r="K40" t="n">
         <v>197.83</v>
       </c>
+      <c r="L40" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="M40" t="n">
+        <v>94.2</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1893,6 +2137,12 @@
       <c r="K41" t="n">
         <v>167.85</v>
       </c>
+      <c r="L41" t="n">
+        <v>42.15</v>
+      </c>
+      <c r="M41" t="n">
+        <v>79.93000000000001</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1926,7 +2176,13 @@
         <v>45637.66504629629</v>
       </c>
       <c r="K42" t="n">
-        <v>147.65</v>
+        <v>117.65</v>
+      </c>
+      <c r="L42" t="n">
+        <v>92.34999999999999</v>
+      </c>
+      <c r="M42" t="n">
+        <v>56.02</v>
       </c>
     </row>
     <row r="43">
@@ -1963,6 +2219,12 @@
       <c r="K43" t="n">
         <v>224.55</v>
       </c>
+      <c r="L43" t="n">
+        <v>-14.55</v>
+      </c>
+      <c r="M43" t="n">
+        <v>106.93</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1998,6 +2260,12 @@
       <c r="K44" t="n">
         <v>228.57</v>
       </c>
+      <c r="L44" t="n">
+        <v>-18.57</v>
+      </c>
+      <c r="M44" t="n">
+        <v>108.84</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2033,6 +2301,12 @@
       <c r="K45" t="n">
         <v>74.37</v>
       </c>
+      <c r="L45" t="n">
+        <v>135.63</v>
+      </c>
+      <c r="M45" t="n">
+        <v>35.41</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2068,6 +2342,12 @@
       <c r="K46" t="n">
         <v>229.88</v>
       </c>
+      <c r="L46" t="n">
+        <v>-19.88</v>
+      </c>
+      <c r="M46" t="n">
+        <v>109.47</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2103,6 +2383,12 @@
       <c r="K47" t="n">
         <v>238.38</v>
       </c>
+      <c r="L47" t="n">
+        <v>-28.38</v>
+      </c>
+      <c r="M47" t="n">
+        <v>113.51</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2138,6 +2424,12 @@
       <c r="K48" t="n">
         <v>240.22</v>
       </c>
+      <c r="L48" t="n">
+        <v>-30.22</v>
+      </c>
+      <c r="M48" t="n">
+        <v>114.39</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2173,6 +2465,12 @@
       <c r="K49" t="n">
         <v>75.72</v>
       </c>
+      <c r="L49" t="n">
+        <v>134.28</v>
+      </c>
+      <c r="M49" t="n">
+        <v>36.06</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2208,6 +2506,12 @@
       <c r="K50" t="n">
         <v>141.4</v>
       </c>
+      <c r="L50" t="n">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="M50" t="n">
+        <v>67.33</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2243,6 +2547,12 @@
       <c r="K51" t="n">
         <v>237.37</v>
       </c>
+      <c r="L51" t="n">
+        <v>-27.37</v>
+      </c>
+      <c r="M51" t="n">
+        <v>113.03</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2278,6 +2588,12 @@
       <c r="K52" t="n">
         <v>216.05</v>
       </c>
+      <c r="L52" t="n">
+        <v>-6.05</v>
+      </c>
+      <c r="M52" t="n">
+        <v>102.88</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2313,6 +2629,12 @@
       <c r="K53" t="n">
         <v>175.25</v>
       </c>
+      <c r="L53" t="n">
+        <v>34.75</v>
+      </c>
+      <c r="M53" t="n">
+        <v>83.45</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2348,6 +2670,12 @@
       <c r="K54" t="n">
         <v>240.3</v>
       </c>
+      <c r="L54" t="n">
+        <v>-30.3</v>
+      </c>
+      <c r="M54" t="n">
+        <v>114.43</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2383,6 +2711,12 @@
       <c r="K55" t="n">
         <v>190.38</v>
       </c>
+      <c r="L55" t="n">
+        <v>19.62</v>
+      </c>
+      <c r="M55" t="n">
+        <v>90.66</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2418,6 +2752,12 @@
       <c r="K56" t="n">
         <v>192.93</v>
       </c>
+      <c r="L56" t="n">
+        <v>17.07</v>
+      </c>
+      <c r="M56" t="n">
+        <v>91.87</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2453,6 +2793,12 @@
       <c r="K57" t="n">
         <v>145.1</v>
       </c>
+      <c r="L57" t="n">
+        <v>64.90000000000001</v>
+      </c>
+      <c r="M57" t="n">
+        <v>69.09999999999999</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2488,6 +2834,12 @@
       <c r="K58" t="n">
         <v>239.58</v>
       </c>
+      <c r="L58" t="n">
+        <v>-29.58</v>
+      </c>
+      <c r="M58" t="n">
+        <v>114.09</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2523,6 +2875,12 @@
       <c r="K59" t="n">
         <v>228.12</v>
       </c>
+      <c r="L59" t="n">
+        <v>-18.12</v>
+      </c>
+      <c r="M59" t="n">
+        <v>108.63</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2558,6 +2916,12 @@
       <c r="K60" t="n">
         <v>240.02</v>
       </c>
+      <c r="L60" t="n">
+        <v>-30.02</v>
+      </c>
+      <c r="M60" t="n">
+        <v>114.3</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2593,6 +2957,12 @@
       <c r="K61" t="n">
         <v>228.2</v>
       </c>
+      <c r="L61" t="n">
+        <v>-18.2</v>
+      </c>
+      <c r="M61" t="n">
+        <v>108.67</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2628,6 +2998,12 @@
       <c r="K62" t="n">
         <v>180.23</v>
       </c>
+      <c r="L62" t="n">
+        <v>29.77</v>
+      </c>
+      <c r="M62" t="n">
+        <v>85.81999999999999</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2663,6 +3039,12 @@
       <c r="K63" t="n">
         <v>142.47</v>
       </c>
+      <c r="L63" t="n">
+        <v>67.53</v>
+      </c>
+      <c r="M63" t="n">
+        <v>67.84</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2698,6 +3080,12 @@
       <c r="K64" t="n">
         <v>218.57</v>
       </c>
+      <c r="L64" t="n">
+        <v>-8.57</v>
+      </c>
+      <c r="M64" t="n">
+        <v>104.08</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2733,6 +3121,12 @@
       <c r="K65" t="n">
         <v>217.17</v>
       </c>
+      <c r="L65" t="n">
+        <v>-7.17</v>
+      </c>
+      <c r="M65" t="n">
+        <v>103.41</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2768,6 +3162,12 @@
       <c r="K66" t="n">
         <v>204.43</v>
       </c>
+      <c r="L66" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="M66" t="n">
+        <v>97.34999999999999</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2803,6 +3203,12 @@
       <c r="K67" t="n">
         <v>240.02</v>
       </c>
+      <c r="L67" t="n">
+        <v>-30.02</v>
+      </c>
+      <c r="M67" t="n">
+        <v>114.3</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -2838,6 +3244,12 @@
       <c r="K68" t="n">
         <v>182.93</v>
       </c>
+      <c r="L68" t="n">
+        <v>27.07</v>
+      </c>
+      <c r="M68" t="n">
+        <v>87.11</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -2873,6 +3285,12 @@
       <c r="K69" t="n">
         <v>160.22</v>
       </c>
+      <c r="L69" t="n">
+        <v>49.78</v>
+      </c>
+      <c r="M69" t="n">
+        <v>76.3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -2908,6 +3326,12 @@
       <c r="K70" t="n">
         <v>236.58</v>
       </c>
+      <c r="L70" t="n">
+        <v>-26.58</v>
+      </c>
+      <c r="M70" t="n">
+        <v>112.66</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -2943,6 +3367,12 @@
       <c r="K71" t="n">
         <v>222.7</v>
       </c>
+      <c r="L71" t="n">
+        <v>-12.7</v>
+      </c>
+      <c r="M71" t="n">
+        <v>106.05</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -2978,6 +3408,12 @@
       <c r="K72" t="n">
         <v>239.27</v>
       </c>
+      <c r="L72" t="n">
+        <v>-29.27</v>
+      </c>
+      <c r="M72" t="n">
+        <v>113.94</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -3013,6 +3449,12 @@
       <c r="K73" t="n">
         <v>233.83</v>
       </c>
+      <c r="L73" t="n">
+        <v>-23.83</v>
+      </c>
+      <c r="M73" t="n">
+        <v>111.35</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -3048,6 +3490,12 @@
       <c r="K74" t="n">
         <v>181.88</v>
       </c>
+      <c r="L74" t="n">
+        <v>28.12</v>
+      </c>
+      <c r="M74" t="n">
+        <v>86.61</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -3083,6 +3531,12 @@
       <c r="K75" t="n">
         <v>239.67</v>
       </c>
+      <c r="L75" t="n">
+        <v>-29.67</v>
+      </c>
+      <c r="M75" t="n">
+        <v>114.13</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -3118,6 +3572,12 @@
       <c r="K76" t="n">
         <v>152.08</v>
       </c>
+      <c r="L76" t="n">
+        <v>57.92</v>
+      </c>
+      <c r="M76" t="n">
+        <v>72.42</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -3153,6 +3613,12 @@
       <c r="K77" t="n">
         <v>127.33</v>
       </c>
+      <c r="L77" t="n">
+        <v>82.67</v>
+      </c>
+      <c r="M77" t="n">
+        <v>60.63</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -3188,6 +3654,12 @@
       <c r="K78" t="n">
         <v>146.8</v>
       </c>
+      <c r="L78" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="M78" t="n">
+        <v>69.90000000000001</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -3223,6 +3695,12 @@
       <c r="K79" t="n">
         <v>231.5</v>
       </c>
+      <c r="L79" t="n">
+        <v>-21.5</v>
+      </c>
+      <c r="M79" t="n">
+        <v>110.24</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -3258,6 +3736,12 @@
       <c r="K80" t="n">
         <v>202.48</v>
       </c>
+      <c r="L80" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="M80" t="n">
+        <v>96.42</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -3291,7 +3775,13 @@
         <v>45637.70262731481</v>
       </c>
       <c r="K81" t="n">
-        <v>201.77</v>
+        <v>171.77</v>
+      </c>
+      <c r="L81" t="n">
+        <v>38.23</v>
+      </c>
+      <c r="M81" t="n">
+        <v>81.8</v>
       </c>
     </row>
     <row r="82">
@@ -3328,6 +3818,12 @@
       <c r="K82" t="n">
         <v>238.65</v>
       </c>
+      <c r="L82" t="n">
+        <v>-28.65</v>
+      </c>
+      <c r="M82" t="n">
+        <v>113.64</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -3363,6 +3859,12 @@
       <c r="K83" t="n">
         <v>102.55</v>
       </c>
+      <c r="L83" t="n">
+        <v>107.45</v>
+      </c>
+      <c r="M83" t="n">
+        <v>48.83</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -3398,6 +3900,12 @@
       <c r="K84" t="n">
         <v>232.32</v>
       </c>
+      <c r="L84" t="n">
+        <v>-22.32</v>
+      </c>
+      <c r="M84" t="n">
+        <v>110.63</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -3433,6 +3941,12 @@
       <c r="K85" t="n">
         <v>237.6</v>
       </c>
+      <c r="L85" t="n">
+        <v>-27.6</v>
+      </c>
+      <c r="M85" t="n">
+        <v>113.14</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -3468,6 +3982,12 @@
       <c r="K86" t="n">
         <v>238.23</v>
       </c>
+      <c r="L86" t="n">
+        <v>-28.23</v>
+      </c>
+      <c r="M86" t="n">
+        <v>113.44</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -3501,7 +4021,13 @@
         <v>45637.72358796297</v>
       </c>
       <c r="K87" t="n">
-        <v>231.95</v>
+        <v>201.95</v>
+      </c>
+      <c r="L87" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="M87" t="n">
+        <v>96.17</v>
       </c>
     </row>
     <row r="88">
@@ -3538,6 +4064,12 @@
       <c r="K88" t="n">
         <v>200.68</v>
       </c>
+      <c r="L88" t="n">
+        <v>9.32</v>
+      </c>
+      <c r="M88" t="n">
+        <v>95.56</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -3573,6 +4105,12 @@
       <c r="K89" t="n">
         <v>236.67</v>
       </c>
+      <c r="L89" t="n">
+        <v>-26.67</v>
+      </c>
+      <c r="M89" t="n">
+        <v>112.7</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -3606,7 +4144,13 @@
         <v>45637.7184837963</v>
       </c>
       <c r="K90" t="n">
-        <v>224.6</v>
+        <v>194.6</v>
+      </c>
+      <c r="L90" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="M90" t="n">
+        <v>92.67</v>
       </c>
     </row>
     <row r="91">
@@ -3643,6 +4187,12 @@
       <c r="K91" t="n">
         <v>190.3</v>
       </c>
+      <c r="L91" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="M91" t="n">
+        <v>90.62</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -3676,7 +4226,13 @@
         <v>45637.74577546296</v>
       </c>
       <c r="K92" t="n">
-        <v>263.85</v>
+        <v>233.85</v>
+      </c>
+      <c r="L92" t="n">
+        <v>-23.85</v>
+      </c>
+      <c r="M92" t="n">
+        <v>111.36</v>
       </c>
     </row>
     <row r="93">
@@ -3713,6 +4269,12 @@
       <c r="K93" t="n">
         <v>232.65</v>
       </c>
+      <c r="L93" t="n">
+        <v>-22.65</v>
+      </c>
+      <c r="M93" t="n">
+        <v>110.79</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -3748,6 +4310,12 @@
       <c r="K94" t="n">
         <v>239.6</v>
       </c>
+      <c r="L94" t="n">
+        <v>-29.6</v>
+      </c>
+      <c r="M94" t="n">
+        <v>114.1</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -3781,7 +4349,13 @@
         <v>45637.7437037037</v>
       </c>
       <c r="K95" t="n">
-        <v>260.92</v>
+        <v>230.92</v>
+      </c>
+      <c r="L95" t="n">
+        <v>-20.92</v>
+      </c>
+      <c r="M95" t="n">
+        <v>109.96</v>
       </c>
     </row>
     <row r="96">
@@ -3818,6 +4392,12 @@
       <c r="K96" t="n">
         <v>212.92</v>
       </c>
+      <c r="L96" t="n">
+        <v>-2.92</v>
+      </c>
+      <c r="M96" t="n">
+        <v>101.39</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -3853,6 +4433,12 @@
       <c r="K97" t="n">
         <v>78.65000000000001</v>
       </c>
+      <c r="L97" t="n">
+        <v>131.35</v>
+      </c>
+      <c r="M97" t="n">
+        <v>37.45</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -3888,6 +4474,12 @@
       <c r="K98" t="n">
         <v>183.75</v>
       </c>
+      <c r="L98" t="n">
+        <v>26.25</v>
+      </c>
+      <c r="M98" t="n">
+        <v>87.5</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -3923,6 +4515,12 @@
       <c r="K99" t="n">
         <v>240.12</v>
       </c>
+      <c r="L99" t="n">
+        <v>-30.12</v>
+      </c>
+      <c r="M99" t="n">
+        <v>114.34</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -3958,6 +4556,12 @@
       <c r="K100" t="n">
         <v>57.28</v>
       </c>
+      <c r="L100" t="n">
+        <v>152.72</v>
+      </c>
+      <c r="M100" t="n">
+        <v>27.28</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -3991,7 +4595,13 @@
         <v>45637.69614583333</v>
       </c>
       <c r="K101" t="n">
-        <v>192.38</v>
+        <v>162.38</v>
+      </c>
+      <c r="L101" t="n">
+        <v>47.62</v>
+      </c>
+      <c r="M101" t="n">
+        <v>77.31999999999999</v>
       </c>
     </row>
     <row r="102">
@@ -4028,6 +4638,12 @@
       <c r="K102" t="n">
         <v>124.6</v>
       </c>
+      <c r="L102" t="n">
+        <v>85.40000000000001</v>
+      </c>
+      <c r="M102" t="n">
+        <v>59.33</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -4063,6 +4679,12 @@
       <c r="K103" t="n">
         <v>171.1</v>
       </c>
+      <c r="L103" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="M103" t="n">
+        <v>81.48</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -4098,6 +4720,12 @@
       <c r="K104" t="n">
         <v>194.48</v>
       </c>
+      <c r="L104" t="n">
+        <v>15.52</v>
+      </c>
+      <c r="M104" t="n">
+        <v>92.61</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -4133,6 +4761,12 @@
       <c r="K105" t="n">
         <v>198.78</v>
       </c>
+      <c r="L105" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="M105" t="n">
+        <v>94.66</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -4168,6 +4802,12 @@
       <c r="K106" t="n">
         <v>240.1</v>
       </c>
+      <c r="L106" t="n">
+        <v>-30.1</v>
+      </c>
+      <c r="M106" t="n">
+        <v>114.33</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -4201,7 +4841,13 @@
         <v>45637.71797453704</v>
       </c>
       <c r="K107" t="n">
-        <v>223.87</v>
+        <v>193.87</v>
+      </c>
+      <c r="L107" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="M107" t="n">
+        <v>92.31999999999999</v>
       </c>
     </row>
     <row r="108">
@@ -4238,6 +4884,12 @@
       <c r="K108" t="n">
         <v>186.28</v>
       </c>
+      <c r="L108" t="n">
+        <v>23.72</v>
+      </c>
+      <c r="M108" t="n">
+        <v>88.7</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -4273,6 +4925,12 @@
       <c r="K109" t="n">
         <v>180.42</v>
       </c>
+      <c r="L109" t="n">
+        <v>29.58</v>
+      </c>
+      <c r="M109" t="n">
+        <v>85.91</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -4308,6 +4966,12 @@
       <c r="K110" t="n">
         <v>233.52</v>
       </c>
+      <c r="L110" t="n">
+        <v>-23.52</v>
+      </c>
+      <c r="M110" t="n">
+        <v>111.2</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -4343,6 +5007,12 @@
       <c r="K111" t="n">
         <v>179.23</v>
       </c>
+      <c r="L111" t="n">
+        <v>30.77</v>
+      </c>
+      <c r="M111" t="n">
+        <v>85.34999999999999</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -4378,6 +5048,12 @@
       <c r="K112" t="n">
         <v>107.52</v>
       </c>
+      <c r="L112" t="n">
+        <v>102.48</v>
+      </c>
+      <c r="M112" t="n">
+        <v>51.2</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -4413,6 +5089,12 @@
       <c r="K113" t="n">
         <v>234.47</v>
       </c>
+      <c r="L113" t="n">
+        <v>-24.47</v>
+      </c>
+      <c r="M113" t="n">
+        <v>111.65</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -4448,6 +5130,12 @@
       <c r="K114" t="n">
         <v>239.4</v>
       </c>
+      <c r="L114" t="n">
+        <v>-29.4</v>
+      </c>
+      <c r="M114" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -4483,6 +5171,12 @@
       <c r="K115" t="n">
         <v>239.17</v>
       </c>
+      <c r="L115" t="n">
+        <v>-29.17</v>
+      </c>
+      <c r="M115" t="n">
+        <v>113.89</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -4518,6 +5212,12 @@
       <c r="K116" t="n">
         <v>213.53</v>
       </c>
+      <c r="L116" t="n">
+        <v>-3.53</v>
+      </c>
+      <c r="M116" t="n">
+        <v>101.68</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -4553,6 +5253,12 @@
       <c r="K117" t="n">
         <v>159.68</v>
       </c>
+      <c r="L117" t="n">
+        <v>50.32</v>
+      </c>
+      <c r="M117" t="n">
+        <v>76.04000000000001</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -4588,6 +5294,12 @@
       <c r="K118" t="n">
         <v>237.73</v>
       </c>
+      <c r="L118" t="n">
+        <v>-27.73</v>
+      </c>
+      <c r="M118" t="n">
+        <v>113.2</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -4623,6 +5335,12 @@
       <c r="K119" t="n">
         <v>230.57</v>
       </c>
+      <c r="L119" t="n">
+        <v>-20.57</v>
+      </c>
+      <c r="M119" t="n">
+        <v>109.8</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -4658,6 +5376,12 @@
       <c r="K120" t="n">
         <v>196.77</v>
       </c>
+      <c r="L120" t="n">
+        <v>13.23</v>
+      </c>
+      <c r="M120" t="n">
+        <v>93.7</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -4693,6 +5417,12 @@
       <c r="K121" t="n">
         <v>130.18</v>
       </c>
+      <c r="L121" t="n">
+        <v>79.81999999999999</v>
+      </c>
+      <c r="M121" t="n">
+        <v>61.99</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -4728,6 +5458,12 @@
       <c r="K122" t="n">
         <v>138.55</v>
       </c>
+      <c r="L122" t="n">
+        <v>71.45</v>
+      </c>
+      <c r="M122" t="n">
+        <v>65.98</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -4763,6 +5499,12 @@
       <c r="K123" t="n">
         <v>205.68</v>
       </c>
+      <c r="L123" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="M123" t="n">
+        <v>97.94</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -4798,6 +5540,12 @@
       <c r="K124" t="n">
         <v>180.83</v>
       </c>
+      <c r="L124" t="n">
+        <v>29.17</v>
+      </c>
+      <c r="M124" t="n">
+        <v>86.11</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -4831,7 +5579,13 @@
         <v>45637.70858796296</v>
       </c>
       <c r="K125" t="n">
-        <v>210.35</v>
+        <v>180.35</v>
+      </c>
+      <c r="L125" t="n">
+        <v>29.65</v>
+      </c>
+      <c r="M125" t="n">
+        <v>85.88</v>
       </c>
     </row>
     <row r="126">
@@ -4868,6 +5622,12 @@
       <c r="K126" t="n">
         <v>228.48</v>
       </c>
+      <c r="L126" t="n">
+        <v>-18.48</v>
+      </c>
+      <c r="M126" t="n">
+        <v>108.8</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -4903,6 +5663,12 @@
       <c r="K127" t="n">
         <v>239.85</v>
       </c>
+      <c r="L127" t="n">
+        <v>-29.85</v>
+      </c>
+      <c r="M127" t="n">
+        <v>114.21</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -4938,6 +5704,12 @@
       <c r="K128" t="n">
         <v>237.27</v>
       </c>
+      <c r="L128" t="n">
+        <v>-27.27</v>
+      </c>
+      <c r="M128" t="n">
+        <v>112.99</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -4973,6 +5745,12 @@
       <c r="K129" t="n">
         <v>221.72</v>
       </c>
+      <c r="L129" t="n">
+        <v>-11.72</v>
+      </c>
+      <c r="M129" t="n">
+        <v>105.58</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -5008,6 +5786,12 @@
       <c r="K130" t="n">
         <v>239.08</v>
       </c>
+      <c r="L130" t="n">
+        <v>-29.08</v>
+      </c>
+      <c r="M130" t="n">
+        <v>113.85</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -5043,6 +5827,12 @@
       <c r="K131" t="n">
         <v>228.02</v>
       </c>
+      <c r="L131" t="n">
+        <v>-18.02</v>
+      </c>
+      <c r="M131" t="n">
+        <v>108.58</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -5078,6 +5868,12 @@
       <c r="K132" t="n">
         <v>240.22</v>
       </c>
+      <c r="L132" t="n">
+        <v>-30.22</v>
+      </c>
+      <c r="M132" t="n">
+        <v>114.39</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -5113,6 +5909,12 @@
       <c r="K133" t="n">
         <v>120.65</v>
       </c>
+      <c r="L133" t="n">
+        <v>89.34999999999999</v>
+      </c>
+      <c r="M133" t="n">
+        <v>57.45</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -5148,6 +5950,12 @@
       <c r="K134" t="n">
         <v>155.85</v>
       </c>
+      <c r="L134" t="n">
+        <v>54.15</v>
+      </c>
+      <c r="M134" t="n">
+        <v>74.20999999999999</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -5183,6 +5991,12 @@
       <c r="K135" t="n">
         <v>208.93</v>
       </c>
+      <c r="L135" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="M135" t="n">
+        <v>99.48999999999999</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -5218,6 +6032,12 @@
       <c r="K136" t="n">
         <v>164.3</v>
       </c>
+      <c r="L136" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="M136" t="n">
+        <v>78.23999999999999</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -5253,6 +6073,12 @@
       <c r="K137" t="n">
         <v>208.9</v>
       </c>
+      <c r="L137" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M137" t="n">
+        <v>99.48</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -5288,6 +6114,12 @@
       <c r="K138" t="n">
         <v>74.09999999999999</v>
       </c>
+      <c r="L138" t="n">
+        <v>135.9</v>
+      </c>
+      <c r="M138" t="n">
+        <v>35.29</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -5323,6 +6155,12 @@
       <c r="K139" t="n">
         <v>240.03</v>
       </c>
+      <c r="L139" t="n">
+        <v>-30.03</v>
+      </c>
+      <c r="M139" t="n">
+        <v>114.3</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -5356,7 +6194,13 @@
         <v>45637.7040162037</v>
       </c>
       <c r="K140" t="n">
-        <v>203.77</v>
+        <v>173.77</v>
+      </c>
+      <c r="L140" t="n">
+        <v>36.23</v>
+      </c>
+      <c r="M140" t="n">
+        <v>82.75</v>
       </c>
     </row>
     <row r="141">
@@ -5393,6 +6237,12 @@
       <c r="K141" t="n">
         <v>220.58</v>
       </c>
+      <c r="L141" t="n">
+        <v>-10.58</v>
+      </c>
+      <c r="M141" t="n">
+        <v>105.04</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -5428,6 +6278,12 @@
       <c r="K142" t="n">
         <v>226.33</v>
       </c>
+      <c r="L142" t="n">
+        <v>-16.33</v>
+      </c>
+      <c r="M142" t="n">
+        <v>107.78</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -5463,6 +6319,12 @@
       <c r="K143" t="n">
         <v>176.87</v>
       </c>
+      <c r="L143" t="n">
+        <v>33.13</v>
+      </c>
+      <c r="M143" t="n">
+        <v>84.22</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -5498,6 +6360,12 @@
       <c r="K144" t="n">
         <v>176.05</v>
       </c>
+      <c r="L144" t="n">
+        <v>33.95</v>
+      </c>
+      <c r="M144" t="n">
+        <v>83.83</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -5533,6 +6401,12 @@
       <c r="K145" t="n">
         <v>238.45</v>
       </c>
+      <c r="L145" t="n">
+        <v>-28.45</v>
+      </c>
+      <c r="M145" t="n">
+        <v>113.55</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -5568,6 +6442,12 @@
       <c r="K146" t="n">
         <v>187.9</v>
       </c>
+      <c r="L146" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="M146" t="n">
+        <v>89.48</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -5601,7 +6481,13 @@
         <v>45637.72530092593</v>
       </c>
       <c r="K147" t="n">
-        <v>234.38</v>
+        <v>204.38</v>
+      </c>
+      <c r="L147" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="M147" t="n">
+        <v>97.31999999999999</v>
       </c>
     </row>
     <row r="148">
@@ -5638,6 +6524,12 @@
       <c r="K148" t="n">
         <v>233.37</v>
       </c>
+      <c r="L148" t="n">
+        <v>-23.37</v>
+      </c>
+      <c r="M148" t="n">
+        <v>111.13</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -5673,6 +6565,12 @@
       <c r="K149" t="n">
         <v>227.15</v>
       </c>
+      <c r="L149" t="n">
+        <v>-17.15</v>
+      </c>
+      <c r="M149" t="n">
+        <v>108.17</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -5708,6 +6606,12 @@
       <c r="K150" t="n">
         <v>161.75</v>
       </c>
+      <c r="L150" t="n">
+        <v>48.25</v>
+      </c>
+      <c r="M150" t="n">
+        <v>77.02</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -5743,6 +6647,12 @@
       <c r="K151" t="n">
         <v>213.47</v>
       </c>
+      <c r="L151" t="n">
+        <v>-3.47</v>
+      </c>
+      <c r="M151" t="n">
+        <v>101.65</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -5778,6 +6688,12 @@
       <c r="K152" t="n">
         <v>230.85</v>
       </c>
+      <c r="L152" t="n">
+        <v>-20.85</v>
+      </c>
+      <c r="M152" t="n">
+        <v>109.93</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -5813,6 +6729,12 @@
       <c r="K153" t="n">
         <v>240.17</v>
       </c>
+      <c r="L153" t="n">
+        <v>-30.17</v>
+      </c>
+      <c r="M153" t="n">
+        <v>114.37</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -5848,6 +6770,12 @@
       <c r="K154" t="n">
         <v>237.77</v>
       </c>
+      <c r="L154" t="n">
+        <v>-27.77</v>
+      </c>
+      <c r="M154" t="n">
+        <v>113.22</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -5883,6 +6811,12 @@
       <c r="K155" t="n">
         <v>141.03</v>
       </c>
+      <c r="L155" t="n">
+        <v>68.97</v>
+      </c>
+      <c r="M155" t="n">
+        <v>67.16</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -5918,6 +6852,12 @@
       <c r="K156" t="n">
         <v>185.4</v>
       </c>
+      <c r="L156" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="M156" t="n">
+        <v>88.29000000000001</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -5953,6 +6893,12 @@
       <c r="K157" t="n">
         <v>169.87</v>
       </c>
+      <c r="L157" t="n">
+        <v>40.13</v>
+      </c>
+      <c r="M157" t="n">
+        <v>80.89</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -5988,6 +6934,12 @@
       <c r="K158" t="n">
         <v>196.78</v>
       </c>
+      <c r="L158" t="n">
+        <v>13.22</v>
+      </c>
+      <c r="M158" t="n">
+        <v>93.7</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -6023,6 +6975,12 @@
       <c r="K159" t="n">
         <v>138</v>
       </c>
+      <c r="L159" t="n">
+        <v>72</v>
+      </c>
+      <c r="M159" t="n">
+        <v>65.70999999999999</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -6058,6 +7016,12 @@
       <c r="K160" t="n">
         <v>238.65</v>
       </c>
+      <c r="L160" t="n">
+        <v>-28.65</v>
+      </c>
+      <c r="M160" t="n">
+        <v>113.64</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -6093,6 +7057,12 @@
       <c r="K161" t="n">
         <v>208.92</v>
       </c>
+      <c r="L161" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="M161" t="n">
+        <v>99.48999999999999</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -6128,6 +7098,12 @@
       <c r="K162" t="n">
         <v>215.67</v>
       </c>
+      <c r="L162" t="n">
+        <v>-5.67</v>
+      </c>
+      <c r="M162" t="n">
+        <v>102.7</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -6163,6 +7139,12 @@
       <c r="K163" t="n">
         <v>168.28</v>
       </c>
+      <c r="L163" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="M163" t="n">
+        <v>80.13</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -6198,6 +7180,12 @@
       <c r="K164" t="n">
         <v>230.62</v>
       </c>
+      <c r="L164" t="n">
+        <v>-20.62</v>
+      </c>
+      <c r="M164" t="n">
+        <v>109.82</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -6233,6 +7221,12 @@
       <c r="K165" t="n">
         <v>212.38</v>
       </c>
+      <c r="L165" t="n">
+        <v>-2.38</v>
+      </c>
+      <c r="M165" t="n">
+        <v>101.13</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -6268,6 +7262,12 @@
       <c r="K166" t="n">
         <v>238.03</v>
       </c>
+      <c r="L166" t="n">
+        <v>-28.03</v>
+      </c>
+      <c r="M166" t="n">
+        <v>113.35</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -6303,6 +7303,12 @@
       <c r="K167" t="n">
         <v>229.87</v>
       </c>
+      <c r="L167" t="n">
+        <v>-19.87</v>
+      </c>
+      <c r="M167" t="n">
+        <v>109.46</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -6338,6 +7344,12 @@
       <c r="K168" t="n">
         <v>221.68</v>
       </c>
+      <c r="L168" t="n">
+        <v>-11.68</v>
+      </c>
+      <c r="M168" t="n">
+        <v>105.56</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -6373,6 +7385,12 @@
       <c r="K169" t="n">
         <v>168.07</v>
       </c>
+      <c r="L169" t="n">
+        <v>41.93</v>
+      </c>
+      <c r="M169" t="n">
+        <v>80.03</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -6408,6 +7426,12 @@
       <c r="K170" t="n">
         <v>237.88</v>
       </c>
+      <c r="L170" t="n">
+        <v>-27.88</v>
+      </c>
+      <c r="M170" t="n">
+        <v>113.28</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -6443,6 +7467,12 @@
       <c r="K171" t="n">
         <v>181.28</v>
       </c>
+      <c r="L171" t="n">
+        <v>28.72</v>
+      </c>
+      <c r="M171" t="n">
+        <v>86.31999999999999</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -6476,7 +7506,13 @@
         <v>45637.72633101852</v>
       </c>
       <c r="K172" t="n">
-        <v>235.9</v>
+        <v>205.9</v>
+      </c>
+      <c r="L172" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="M172" t="n">
+        <v>98.05</v>
       </c>
     </row>
     <row r="173">
@@ -6513,6 +7549,12 @@
       <c r="K173" t="n">
         <v>240.33</v>
       </c>
+      <c r="L173" t="n">
+        <v>-30.33</v>
+      </c>
+      <c r="M173" t="n">
+        <v>114.44</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -6548,6 +7590,12 @@
       <c r="K174" t="n">
         <v>160.95</v>
       </c>
+      <c r="L174" t="n">
+        <v>49.05</v>
+      </c>
+      <c r="M174" t="n">
+        <v>76.64</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -6583,6 +7631,12 @@
       <c r="K175" t="n">
         <v>101.85</v>
       </c>
+      <c r="L175" t="n">
+        <v>108.15</v>
+      </c>
+      <c r="M175" t="n">
+        <v>48.5</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -6618,6 +7672,12 @@
       <c r="K176" t="n">
         <v>237.82</v>
       </c>
+      <c r="L176" t="n">
+        <v>-27.82</v>
+      </c>
+      <c r="M176" t="n">
+        <v>113.25</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -6653,6 +7713,12 @@
       <c r="K177" t="n">
         <v>237.33</v>
       </c>
+      <c r="L177" t="n">
+        <v>-27.33</v>
+      </c>
+      <c r="M177" t="n">
+        <v>113.01</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -6688,6 +7754,12 @@
       <c r="K178" t="n">
         <v>239.62</v>
       </c>
+      <c r="L178" t="n">
+        <v>-29.62</v>
+      </c>
+      <c r="M178" t="n">
+        <v>114.1</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -6723,6 +7795,12 @@
       <c r="K179" t="n">
         <v>113.13</v>
       </c>
+      <c r="L179" t="n">
+        <v>96.87</v>
+      </c>
+      <c r="M179" t="n">
+        <v>53.87</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -6758,6 +7836,12 @@
       <c r="K180" t="n">
         <v>173.28</v>
       </c>
+      <c r="L180" t="n">
+        <v>36.72</v>
+      </c>
+      <c r="M180" t="n">
+        <v>82.51000000000001</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -6793,6 +7877,12 @@
       <c r="K181" t="n">
         <v>205.77</v>
       </c>
+      <c r="L181" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="M181" t="n">
+        <v>97.98999999999999</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -6828,6 +7918,12 @@
       <c r="K182" t="n">
         <v>237.52</v>
       </c>
+      <c r="L182" t="n">
+        <v>-27.52</v>
+      </c>
+      <c r="M182" t="n">
+        <v>113.1</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -6863,6 +7959,12 @@
       <c r="K183" t="n">
         <v>240.15</v>
       </c>
+      <c r="L183" t="n">
+        <v>-30.15</v>
+      </c>
+      <c r="M183" t="n">
+        <v>114.36</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -6898,6 +8000,12 @@
       <c r="K184" t="n">
         <v>210.02</v>
       </c>
+      <c r="L184" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="M184" t="n">
+        <v>100.01</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -6933,6 +8041,12 @@
       <c r="K185" t="n">
         <v>228.27</v>
       </c>
+      <c r="L185" t="n">
+        <v>-18.27</v>
+      </c>
+      <c r="M185" t="n">
+        <v>108.7</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -6968,6 +8082,12 @@
       <c r="K186" t="n">
         <v>180.48</v>
       </c>
+      <c r="L186" t="n">
+        <v>29.52</v>
+      </c>
+      <c r="M186" t="n">
+        <v>85.94</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -7003,6 +8123,12 @@
       <c r="K187" t="n">
         <v>99.58</v>
       </c>
+      <c r="L187" t="n">
+        <v>110.42</v>
+      </c>
+      <c r="M187" t="n">
+        <v>47.42</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -7038,6 +8164,12 @@
       <c r="K188" t="n">
         <v>228.68</v>
       </c>
+      <c r="L188" t="n">
+        <v>-18.68</v>
+      </c>
+      <c r="M188" t="n">
+        <v>108.9</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -7073,6 +8205,12 @@
       <c r="K189" t="n">
         <v>232.68</v>
       </c>
+      <c r="L189" t="n">
+        <v>-22.68</v>
+      </c>
+      <c r="M189" t="n">
+        <v>110.8</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -7108,6 +8246,12 @@
       <c r="K190" t="n">
         <v>240.13</v>
       </c>
+      <c r="L190" t="n">
+        <v>-30.13</v>
+      </c>
+      <c r="M190" t="n">
+        <v>114.35</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -7143,6 +8287,12 @@
       <c r="K191" t="n">
         <v>163.15</v>
       </c>
+      <c r="L191" t="n">
+        <v>46.85</v>
+      </c>
+      <c r="M191" t="n">
+        <v>77.69</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -7178,6 +8328,12 @@
       <c r="K192" t="n">
         <v>150.62</v>
       </c>
+      <c r="L192" t="n">
+        <v>59.38</v>
+      </c>
+      <c r="M192" t="n">
+        <v>71.72</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -7213,6 +8369,12 @@
       <c r="K193" t="n">
         <v>203.37</v>
       </c>
+      <c r="L193" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="M193" t="n">
+        <v>96.84</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -7246,7 +8408,13 @@
         <v>45637.71934027778</v>
       </c>
       <c r="K194" t="n">
-        <v>225.82</v>
+        <v>195.82</v>
+      </c>
+      <c r="L194" t="n">
+        <v>14.18</v>
+      </c>
+      <c r="M194" t="n">
+        <v>93.25</v>
       </c>
     </row>
     <row r="195">
@@ -7283,6 +8451,12 @@
       <c r="K195" t="n">
         <v>230.13</v>
       </c>
+      <c r="L195" t="n">
+        <v>-20.13</v>
+      </c>
+      <c r="M195" t="n">
+        <v>109.59</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -7318,6 +8492,12 @@
       <c r="K196" t="n">
         <v>221.68</v>
       </c>
+      <c r="L196" t="n">
+        <v>-11.68</v>
+      </c>
+      <c r="M196" t="n">
+        <v>105.56</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -7353,6 +8533,12 @@
       <c r="K197" t="n">
         <v>230.52</v>
       </c>
+      <c r="L197" t="n">
+        <v>-20.52</v>
+      </c>
+      <c r="M197" t="n">
+        <v>109.77</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -7388,6 +8574,12 @@
       <c r="K198" t="n">
         <v>198.15</v>
       </c>
+      <c r="L198" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="M198" t="n">
+        <v>94.36</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -7421,7 +8613,13 @@
         <v>45637.66888888889</v>
       </c>
       <c r="K199" t="n">
-        <v>118.12</v>
+        <v>111.12</v>
+      </c>
+      <c r="L199" t="n">
+        <v>98.88</v>
+      </c>
+      <c r="M199" t="n">
+        <v>52.91</v>
       </c>
     </row>
     <row r="200">
@@ -7458,6 +8656,12 @@
       <c r="K200" t="n">
         <v>240.07</v>
       </c>
+      <c r="L200" t="n">
+        <v>-30.07</v>
+      </c>
+      <c r="M200" t="n">
+        <v>114.32</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -7493,6 +8697,12 @@
       <c r="K201" t="n">
         <v>240.08</v>
       </c>
+      <c r="L201" t="n">
+        <v>-30.08</v>
+      </c>
+      <c r="M201" t="n">
+        <v>114.32</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -7526,7 +8736,13 @@
         <v>45637.74466435185</v>
       </c>
       <c r="K202" t="n">
-        <v>262.3</v>
+        <v>232.3</v>
+      </c>
+      <c r="L202" t="n">
+        <v>-22.3</v>
+      </c>
+      <c r="M202" t="n">
+        <v>110.62</v>
       </c>
     </row>
     <row r="203">
@@ -7563,6 +8779,12 @@
       <c r="K203" t="n">
         <v>228.53</v>
       </c>
+      <c r="L203" t="n">
+        <v>-18.53</v>
+      </c>
+      <c r="M203" t="n">
+        <v>108.82</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -7598,6 +8820,12 @@
       <c r="K204" t="n">
         <v>240.17</v>
       </c>
+      <c r="L204" t="n">
+        <v>-30.17</v>
+      </c>
+      <c r="M204" t="n">
+        <v>114.37</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -7631,7 +8859,13 @@
         <v>45637.73607638889</v>
       </c>
       <c r="K205" t="n">
-        <v>230.93</v>
+        <v>219.93</v>
+      </c>
+      <c r="L205" t="n">
+        <v>-9.93</v>
+      </c>
+      <c r="M205" t="n">
+        <v>104.73</v>
       </c>
     </row>
     <row r="206">
@@ -7668,6 +8902,12 @@
       <c r="K206" t="n">
         <v>237.73</v>
       </c>
+      <c r="L206" t="n">
+        <v>-27.73</v>
+      </c>
+      <c r="M206" t="n">
+        <v>113.2</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -7703,6 +8943,12 @@
       <c r="K207" t="n">
         <v>213.27</v>
       </c>
+      <c r="L207" t="n">
+        <v>-3.27</v>
+      </c>
+      <c r="M207" t="n">
+        <v>101.56</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -7738,6 +8984,12 @@
       <c r="K208" t="n">
         <v>233.38</v>
       </c>
+      <c r="L208" t="n">
+        <v>-23.38</v>
+      </c>
+      <c r="M208" t="n">
+        <v>111.13</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -7771,7 +9023,13 @@
         <v>45637.74971064815</v>
       </c>
       <c r="K209" t="n">
-        <v>269.57</v>
+        <v>239.57</v>
+      </c>
+      <c r="L209" t="n">
+        <v>-29.57</v>
+      </c>
+      <c r="M209" t="n">
+        <v>114.08</v>
       </c>
     </row>
     <row r="210">
@@ -7808,6 +9066,12 @@
       <c r="K210" t="n">
         <v>154.22</v>
       </c>
+      <c r="L210" t="n">
+        <v>55.78</v>
+      </c>
+      <c r="M210" t="n">
+        <v>73.44</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -7843,6 +9107,12 @@
       <c r="K211" t="n">
         <v>130.53</v>
       </c>
+      <c r="L211" t="n">
+        <v>79.47</v>
+      </c>
+      <c r="M211" t="n">
+        <v>62.16</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -7878,6 +9148,12 @@
       <c r="K212" t="n">
         <v>237.87</v>
       </c>
+      <c r="L212" t="n">
+        <v>-27.87</v>
+      </c>
+      <c r="M212" t="n">
+        <v>113.27</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -7913,6 +9189,12 @@
       <c r="K213" t="n">
         <v>238.17</v>
       </c>
+      <c r="L213" t="n">
+        <v>-28.17</v>
+      </c>
+      <c r="M213" t="n">
+        <v>113.41</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -7948,6 +9230,12 @@
       <c r="K214" t="n">
         <v>142.78</v>
       </c>
+      <c r="L214" t="n">
+        <v>67.22</v>
+      </c>
+      <c r="M214" t="n">
+        <v>67.98999999999999</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -7983,6 +9271,12 @@
       <c r="K215" t="n">
         <v>219.72</v>
       </c>
+      <c r="L215" t="n">
+        <v>-9.720000000000001</v>
+      </c>
+      <c r="M215" t="n">
+        <v>104.63</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -8018,6 +9312,12 @@
       <c r="K216" t="n">
         <v>157.83</v>
       </c>
+      <c r="L216" t="n">
+        <v>52.17</v>
+      </c>
+      <c r="M216" t="n">
+        <v>75.16</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -8053,6 +9353,12 @@
       <c r="K217" t="n">
         <v>170.35</v>
       </c>
+      <c r="L217" t="n">
+        <v>39.65</v>
+      </c>
+      <c r="M217" t="n">
+        <v>81.12</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -8088,6 +9394,12 @@
       <c r="K218" t="n">
         <v>240.77</v>
       </c>
+      <c r="L218" t="n">
+        <v>-30.77</v>
+      </c>
+      <c r="M218" t="n">
+        <v>114.65</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -8123,6 +9435,12 @@
       <c r="K219" t="n">
         <v>239.52</v>
       </c>
+      <c r="L219" t="n">
+        <v>-29.52</v>
+      </c>
+      <c r="M219" t="n">
+        <v>114.06</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -8158,6 +9476,12 @@
       <c r="K220" t="n">
         <v>232.33</v>
       </c>
+      <c r="L220" t="n">
+        <v>-22.33</v>
+      </c>
+      <c r="M220" t="n">
+        <v>110.63</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -8193,6 +9517,12 @@
       <c r="K221" t="n">
         <v>175.92</v>
       </c>
+      <c r="L221" t="n">
+        <v>34.08</v>
+      </c>
+      <c r="M221" t="n">
+        <v>83.77</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -8228,6 +9558,12 @@
       <c r="K222" t="n">
         <v>191.85</v>
       </c>
+      <c r="L222" t="n">
+        <v>18.15</v>
+      </c>
+      <c r="M222" t="n">
+        <v>91.36</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -8263,6 +9599,12 @@
       <c r="K223" t="n">
         <v>223.6</v>
       </c>
+      <c r="L223" t="n">
+        <v>-13.6</v>
+      </c>
+      <c r="M223" t="n">
+        <v>106.48</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -8298,6 +9640,12 @@
       <c r="K224" t="n">
         <v>163.27</v>
       </c>
+      <c r="L224" t="n">
+        <v>46.73</v>
+      </c>
+      <c r="M224" t="n">
+        <v>77.75</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -8333,6 +9681,12 @@
       <c r="K225" t="n">
         <v>114.02</v>
       </c>
+      <c r="L225" t="n">
+        <v>95.98</v>
+      </c>
+      <c r="M225" t="n">
+        <v>54.3</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -8368,6 +9722,12 @@
       <c r="K226" t="n">
         <v>185.57</v>
       </c>
+      <c r="L226" t="n">
+        <v>24.43</v>
+      </c>
+      <c r="M226" t="n">
+        <v>88.37</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -8403,6 +9763,12 @@
       <c r="K227" t="n">
         <v>227.03</v>
       </c>
+      <c r="L227" t="n">
+        <v>-17.03</v>
+      </c>
+      <c r="M227" t="n">
+        <v>108.11</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -8438,6 +9804,12 @@
       <c r="K228" t="n">
         <v>141.97</v>
       </c>
+      <c r="L228" t="n">
+        <v>68.03</v>
+      </c>
+      <c r="M228" t="n">
+        <v>67.59999999999999</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -8471,7 +9843,13 @@
         <v>45637.74826388889</v>
       </c>
       <c r="K229" t="n">
-        <v>278.28</v>
+        <v>237.28</v>
+      </c>
+      <c r="L229" t="n">
+        <v>-27.28</v>
+      </c>
+      <c r="M229" t="n">
+        <v>112.99</v>
       </c>
     </row>
     <row r="230">
@@ -8508,6 +9886,12 @@
       <c r="K230" t="n">
         <v>136.52</v>
       </c>
+      <c r="L230" t="n">
+        <v>73.48</v>
+      </c>
+      <c r="M230" t="n">
+        <v>65.01000000000001</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -8543,6 +9927,12 @@
       <c r="K231" t="n">
         <v>198.52</v>
       </c>
+      <c r="L231" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="M231" t="n">
+        <v>94.53</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -8578,6 +9968,12 @@
       <c r="K232" t="n">
         <v>220.55</v>
       </c>
+      <c r="L232" t="n">
+        <v>-10.55</v>
+      </c>
+      <c r="M232" t="n">
+        <v>105.02</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -8613,6 +10009,12 @@
       <c r="K233" t="n">
         <v>146.15</v>
       </c>
+      <c r="L233" t="n">
+        <v>63.85</v>
+      </c>
+      <c r="M233" t="n">
+        <v>69.59999999999999</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -8648,6 +10050,12 @@
       <c r="K234" t="n">
         <v>166</v>
       </c>
+      <c r="L234" t="n">
+        <v>44</v>
+      </c>
+      <c r="M234" t="n">
+        <v>79.05</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -8683,6 +10091,12 @@
       <c r="K235" t="n">
         <v>230.15</v>
       </c>
+      <c r="L235" t="n">
+        <v>-20.15</v>
+      </c>
+      <c r="M235" t="n">
+        <v>109.6</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -8718,6 +10132,12 @@
       <c r="K236" t="n">
         <v>180.6</v>
       </c>
+      <c r="L236" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="M236" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -8751,7 +10171,13 @@
         <v>45637.68859953704</v>
       </c>
       <c r="K237" t="n">
-        <v>181.53</v>
+        <v>151.53</v>
+      </c>
+      <c r="L237" t="n">
+        <v>58.47</v>
+      </c>
+      <c r="M237" t="n">
+        <v>72.16</v>
       </c>
     </row>
     <row r="238">
@@ -8788,6 +10214,12 @@
       <c r="K238" t="n">
         <v>97.73</v>
       </c>
+      <c r="L238" t="n">
+        <v>112.27</v>
+      </c>
+      <c r="M238" t="n">
+        <v>46.54</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -8823,6 +10255,12 @@
       <c r="K239" t="n">
         <v>122.23</v>
       </c>
+      <c r="L239" t="n">
+        <v>87.77</v>
+      </c>
+      <c r="M239" t="n">
+        <v>58.2</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -8858,6 +10296,12 @@
       <c r="K240" t="n">
         <v>200.07</v>
       </c>
+      <c r="L240" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="M240" t="n">
+        <v>95.27</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -8893,6 +10337,12 @@
       <c r="K241" t="n">
         <v>168.15</v>
       </c>
+      <c r="L241" t="n">
+        <v>41.85</v>
+      </c>
+      <c r="M241" t="n">
+        <v>80.06999999999999</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -8928,6 +10378,12 @@
       <c r="K242" t="n">
         <v>223.75</v>
       </c>
+      <c r="L242" t="n">
+        <v>-13.75</v>
+      </c>
+      <c r="M242" t="n">
+        <v>106.55</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -8963,6 +10419,12 @@
       <c r="K243" t="n">
         <v>239.05</v>
       </c>
+      <c r="L243" t="n">
+        <v>-29.05</v>
+      </c>
+      <c r="M243" t="n">
+        <v>113.83</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -8998,6 +10460,12 @@
       <c r="K244" t="n">
         <v>220.38</v>
       </c>
+      <c r="L244" t="n">
+        <v>-10.38</v>
+      </c>
+      <c r="M244" t="n">
+        <v>104.94</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -9033,6 +10501,12 @@
       <c r="K245" t="n">
         <v>194.78</v>
       </c>
+      <c r="L245" t="n">
+        <v>15.22</v>
+      </c>
+      <c r="M245" t="n">
+        <v>92.75</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -9068,6 +10542,12 @@
       <c r="K246" t="n">
         <v>159.47</v>
       </c>
+      <c r="L246" t="n">
+        <v>50.53</v>
+      </c>
+      <c r="M246" t="n">
+        <v>75.94</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -9103,6 +10583,12 @@
       <c r="K247" t="n">
         <v>149.45</v>
       </c>
+      <c r="L247" t="n">
+        <v>60.55</v>
+      </c>
+      <c r="M247" t="n">
+        <v>71.17</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -9136,7 +10622,13 @@
         <v>45637.74162037037</v>
       </c>
       <c r="K248" t="n">
-        <v>257.92</v>
+        <v>227.92</v>
+      </c>
+      <c r="L248" t="n">
+        <v>-17.92</v>
+      </c>
+      <c r="M248" t="n">
+        <v>108.53</v>
       </c>
     </row>
     <row r="249">
@@ -9173,6 +10665,12 @@
       <c r="K249" t="n">
         <v>240.2</v>
       </c>
+      <c r="L249" t="n">
+        <v>-30.2</v>
+      </c>
+      <c r="M249" t="n">
+        <v>114.38</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -9208,6 +10706,12 @@
       <c r="K250" t="n">
         <v>157.88</v>
       </c>
+      <c r="L250" t="n">
+        <v>52.12</v>
+      </c>
+      <c r="M250" t="n">
+        <v>75.18000000000001</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -9243,6 +10747,12 @@
       <c r="K251" t="n">
         <v>104.82</v>
       </c>
+      <c r="L251" t="n">
+        <v>105.18</v>
+      </c>
+      <c r="M251" t="n">
+        <v>49.91</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -9278,6 +10788,12 @@
       <c r="K252" t="n">
         <v>239.65</v>
       </c>
+      <c r="L252" t="n">
+        <v>-29.65</v>
+      </c>
+      <c r="M252" t="n">
+        <v>114.12</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -9313,6 +10829,12 @@
       <c r="K253" t="n">
         <v>227.55</v>
       </c>
+      <c r="L253" t="n">
+        <v>-17.55</v>
+      </c>
+      <c r="M253" t="n">
+        <v>108.36</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -9348,6 +10870,12 @@
       <c r="K254" t="n">
         <v>201.78</v>
       </c>
+      <c r="L254" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="M254" t="n">
+        <v>96.09</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -9383,6 +10911,12 @@
       <c r="K255" t="n">
         <v>153.52</v>
       </c>
+      <c r="L255" t="n">
+        <v>56.48</v>
+      </c>
+      <c r="M255" t="n">
+        <v>73.09999999999999</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -9418,6 +10952,12 @@
       <c r="K256" t="n">
         <v>173.75</v>
       </c>
+      <c r="L256" t="n">
+        <v>36.25</v>
+      </c>
+      <c r="M256" t="n">
+        <v>82.73999999999999</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -9453,6 +10993,12 @@
       <c r="K257" t="n">
         <v>237.82</v>
       </c>
+      <c r="L257" t="n">
+        <v>-27.82</v>
+      </c>
+      <c r="M257" t="n">
+        <v>113.25</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -9488,6 +11034,12 @@
       <c r="K258" t="n">
         <v>239.37</v>
       </c>
+      <c r="L258" t="n">
+        <v>-29.37</v>
+      </c>
+      <c r="M258" t="n">
+        <v>113.99</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -9523,6 +11075,12 @@
       <c r="K259" t="n">
         <v>193.6</v>
       </c>
+      <c r="L259" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="M259" t="n">
+        <v>92.19</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -9558,6 +11116,12 @@
       <c r="K260" t="n">
         <v>234.15</v>
       </c>
+      <c r="L260" t="n">
+        <v>-24.15</v>
+      </c>
+      <c r="M260" t="n">
+        <v>111.5</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -9593,6 +11157,12 @@
       <c r="K261" t="n">
         <v>158.92</v>
       </c>
+      <c r="L261" t="n">
+        <v>51.08</v>
+      </c>
+      <c r="M261" t="n">
+        <v>75.68000000000001</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -9628,6 +11198,12 @@
       <c r="K262" t="n">
         <v>238.87</v>
       </c>
+      <c r="L262" t="n">
+        <v>-28.87</v>
+      </c>
+      <c r="M262" t="n">
+        <v>113.75</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -9663,6 +11239,12 @@
       <c r="K263" t="n">
         <v>212.28</v>
       </c>
+      <c r="L263" t="n">
+        <v>-2.28</v>
+      </c>
+      <c r="M263" t="n">
+        <v>101.09</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -9698,6 +11280,12 @@
       <c r="K264" t="n">
         <v>210.95</v>
       </c>
+      <c r="L264" t="n">
+        <v>-0.95</v>
+      </c>
+      <c r="M264" t="n">
+        <v>100.45</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -9733,6 +11321,12 @@
       <c r="K265" t="n">
         <v>121.98</v>
       </c>
+      <c r="L265" t="n">
+        <v>88.02</v>
+      </c>
+      <c r="M265" t="n">
+        <v>58.09</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -9768,6 +11362,12 @@
       <c r="K266" t="n">
         <v>172.28</v>
       </c>
+      <c r="L266" t="n">
+        <v>37.72</v>
+      </c>
+      <c r="M266" t="n">
+        <v>82.04000000000001</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -9803,6 +11403,12 @@
       <c r="K267" t="n">
         <v>155.85</v>
       </c>
+      <c r="L267" t="n">
+        <v>54.15</v>
+      </c>
+      <c r="M267" t="n">
+        <v>74.20999999999999</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -9836,7 +11442,13 @@
         <v>45637.70422453704</v>
       </c>
       <c r="K268" t="n">
-        <v>203.95</v>
+        <v>173.95</v>
+      </c>
+      <c r="L268" t="n">
+        <v>36.05</v>
+      </c>
+      <c r="M268" t="n">
+        <v>82.83</v>
       </c>
     </row>
     <row r="269">
@@ -9873,6 +11485,12 @@
       <c r="K269" t="n">
         <v>169.23</v>
       </c>
+      <c r="L269" t="n">
+        <v>40.77</v>
+      </c>
+      <c r="M269" t="n">
+        <v>80.59</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -9908,6 +11526,12 @@
       <c r="K270" t="n">
         <v>196.65</v>
       </c>
+      <c r="L270" t="n">
+        <v>13.35</v>
+      </c>
+      <c r="M270" t="n">
+        <v>93.64</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -9943,6 +11567,12 @@
       <c r="K271" t="n">
         <v>239.32</v>
       </c>
+      <c r="L271" t="n">
+        <v>-29.32</v>
+      </c>
+      <c r="M271" t="n">
+        <v>113.96</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -9978,6 +11608,12 @@
       <c r="K272" t="n">
         <v>201.07</v>
       </c>
+      <c r="L272" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="M272" t="n">
+        <v>95.75</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -10013,6 +11649,12 @@
       <c r="K273" t="n">
         <v>237.77</v>
       </c>
+      <c r="L273" t="n">
+        <v>-27.77</v>
+      </c>
+      <c r="M273" t="n">
+        <v>113.22</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -10048,6 +11690,12 @@
       <c r="K274" t="n">
         <v>144.2</v>
       </c>
+      <c r="L274" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="M274" t="n">
+        <v>68.67</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -10083,6 +11731,12 @@
       <c r="K275" t="n">
         <v>49.25</v>
       </c>
+      <c r="L275" t="n">
+        <v>160.75</v>
+      </c>
+      <c r="M275" t="n">
+        <v>23.45</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -10118,6 +11772,12 @@
       <c r="K276" t="n">
         <v>240.03</v>
       </c>
+      <c r="L276" t="n">
+        <v>-30.03</v>
+      </c>
+      <c r="M276" t="n">
+        <v>114.3</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -10153,6 +11813,12 @@
       <c r="K277" t="n">
         <v>216.25</v>
       </c>
+      <c r="L277" t="n">
+        <v>-6.25</v>
+      </c>
+      <c r="M277" t="n">
+        <v>102.98</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -10188,6 +11854,12 @@
       <c r="K278" t="n">
         <v>203.63</v>
       </c>
+      <c r="L278" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="M278" t="n">
+        <v>96.97</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -10223,6 +11895,12 @@
       <c r="K279" t="n">
         <v>240.07</v>
       </c>
+      <c r="L279" t="n">
+        <v>-30.07</v>
+      </c>
+      <c r="M279" t="n">
+        <v>114.32</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -10258,6 +11936,12 @@
       <c r="K280" t="n">
         <v>141.05</v>
       </c>
+      <c r="L280" t="n">
+        <v>68.95</v>
+      </c>
+      <c r="M280" t="n">
+        <v>67.17</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -10293,6 +11977,12 @@
       <c r="K281" t="n">
         <v>239.37</v>
       </c>
+      <c r="L281" t="n">
+        <v>-29.37</v>
+      </c>
+      <c r="M281" t="n">
+        <v>113.99</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -10328,6 +12018,12 @@
       <c r="K282" t="n">
         <v>162.07</v>
       </c>
+      <c r="L282" t="n">
+        <v>47.93</v>
+      </c>
+      <c r="M282" t="n">
+        <v>77.18000000000001</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -10363,6 +12059,12 @@
       <c r="K283" t="n">
         <v>235.12</v>
       </c>
+      <c r="L283" t="n">
+        <v>-25.12</v>
+      </c>
+      <c r="M283" t="n">
+        <v>111.96</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -10398,6 +12100,12 @@
       <c r="K284" t="n">
         <v>140.27</v>
       </c>
+      <c r="L284" t="n">
+        <v>69.73</v>
+      </c>
+      <c r="M284" t="n">
+        <v>66.8</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -10433,6 +12141,12 @@
       <c r="K285" t="n">
         <v>147.37</v>
       </c>
+      <c r="L285" t="n">
+        <v>62.63</v>
+      </c>
+      <c r="M285" t="n">
+        <v>70.18000000000001</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -10468,6 +12182,12 @@
       <c r="K286" t="n">
         <v>163.83</v>
       </c>
+      <c r="L286" t="n">
+        <v>46.17</v>
+      </c>
+      <c r="M286" t="n">
+        <v>78.01000000000001</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -10503,6 +12223,12 @@
       <c r="K287" t="n">
         <v>209.13</v>
       </c>
+      <c r="L287" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="M287" t="n">
+        <v>99.59</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -10538,6 +12264,12 @@
       <c r="K288" t="n">
         <v>169.58</v>
       </c>
+      <c r="L288" t="n">
+        <v>40.42</v>
+      </c>
+      <c r="M288" t="n">
+        <v>80.75</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -10573,6 +12305,12 @@
       <c r="K289" t="n">
         <v>188.42</v>
       </c>
+      <c r="L289" t="n">
+        <v>21.58</v>
+      </c>
+      <c r="M289" t="n">
+        <v>89.72</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -10608,6 +12346,12 @@
       <c r="K290" t="n">
         <v>239.73</v>
       </c>
+      <c r="L290" t="n">
+        <v>-29.73</v>
+      </c>
+      <c r="M290" t="n">
+        <v>114.16</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -10643,6 +12387,12 @@
       <c r="K291" t="n">
         <v>162.95</v>
       </c>
+      <c r="L291" t="n">
+        <v>47.05</v>
+      </c>
+      <c r="M291" t="n">
+        <v>77.59999999999999</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -10678,6 +12428,12 @@
       <c r="K292" t="n">
         <v>235.6</v>
       </c>
+      <c r="L292" t="n">
+        <v>-25.6</v>
+      </c>
+      <c r="M292" t="n">
+        <v>112.19</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -10713,6 +12469,12 @@
       <c r="K293" t="n">
         <v>124.42</v>
       </c>
+      <c r="L293" t="n">
+        <v>85.58</v>
+      </c>
+      <c r="M293" t="n">
+        <v>59.25</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -10748,6 +12510,12 @@
       <c r="K294" t="n">
         <v>95.03</v>
       </c>
+      <c r="L294" t="n">
+        <v>114.97</v>
+      </c>
+      <c r="M294" t="n">
+        <v>45.25</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -10783,6 +12551,12 @@
       <c r="K295" t="n">
         <v>240.02</v>
       </c>
+      <c r="L295" t="n">
+        <v>-30.02</v>
+      </c>
+      <c r="M295" t="n">
+        <v>114.3</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -10818,6 +12592,12 @@
       <c r="K296" t="n">
         <v>203.35</v>
       </c>
+      <c r="L296" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="M296" t="n">
+        <v>96.83</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -10853,6 +12633,12 @@
       <c r="K297" t="n">
         <v>240.03</v>
       </c>
+      <c r="L297" t="n">
+        <v>-30.03</v>
+      </c>
+      <c r="M297" t="n">
+        <v>114.3</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -10888,6 +12674,12 @@
       <c r="K298" t="n">
         <v>141.92</v>
       </c>
+      <c r="L298" t="n">
+        <v>68.08</v>
+      </c>
+      <c r="M298" t="n">
+        <v>67.58</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -10923,6 +12715,12 @@
       <c r="K299" t="n">
         <v>136.97</v>
       </c>
+      <c r="L299" t="n">
+        <v>73.03</v>
+      </c>
+      <c r="M299" t="n">
+        <v>65.22</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -10958,6 +12756,12 @@
       <c r="K300" t="n">
         <v>188.57</v>
       </c>
+      <c r="L300" t="n">
+        <v>21.43</v>
+      </c>
+      <c r="M300" t="n">
+        <v>89.8</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -10993,6 +12797,12 @@
       <c r="K301" t="n">
         <v>238.28</v>
       </c>
+      <c r="L301" t="n">
+        <v>-28.28</v>
+      </c>
+      <c r="M301" t="n">
+        <v>113.47</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -11028,6 +12838,12 @@
       <c r="K302" t="n">
         <v>210.75</v>
       </c>
+      <c r="L302" t="n">
+        <v>-0.75</v>
+      </c>
+      <c r="M302" t="n">
+        <v>100.36</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -11061,7 +12877,13 @@
         <v>45637.74623842593</v>
       </c>
       <c r="K303" t="n">
-        <v>264.57</v>
+        <v>234.57</v>
+      </c>
+      <c r="L303" t="n">
+        <v>-24.57</v>
+      </c>
+      <c r="M303" t="n">
+        <v>111.7</v>
       </c>
     </row>
     <row r="304">
@@ -11098,6 +12920,12 @@
       <c r="K304" t="n">
         <v>181.17</v>
       </c>
+      <c r="L304" t="n">
+        <v>28.83</v>
+      </c>
+      <c r="M304" t="n">
+        <v>86.27</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -11133,6 +12961,12 @@
       <c r="K305" t="n">
         <v>237.12</v>
       </c>
+      <c r="L305" t="n">
+        <v>-27.12</v>
+      </c>
+      <c r="M305" t="n">
+        <v>112.91</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -11168,6 +13002,12 @@
       <c r="K306" t="n">
         <v>239.13</v>
       </c>
+      <c r="L306" t="n">
+        <v>-29.13</v>
+      </c>
+      <c r="M306" t="n">
+        <v>113.87</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -11203,6 +13043,12 @@
       <c r="K307" t="n">
         <v>141.55</v>
       </c>
+      <c r="L307" t="n">
+        <v>68.45</v>
+      </c>
+      <c r="M307" t="n">
+        <v>67.40000000000001</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -11238,6 +13084,12 @@
       <c r="K308" t="n">
         <v>230.02</v>
       </c>
+      <c r="L308" t="n">
+        <v>-20.02</v>
+      </c>
+      <c r="M308" t="n">
+        <v>109.53</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -11273,6 +13125,12 @@
       <c r="K309" t="n">
         <v>235.65</v>
       </c>
+      <c r="L309" t="n">
+        <v>-25.65</v>
+      </c>
+      <c r="M309" t="n">
+        <v>112.21</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -11308,6 +13166,12 @@
       <c r="K310" t="n">
         <v>183.05</v>
       </c>
+      <c r="L310" t="n">
+        <v>26.95</v>
+      </c>
+      <c r="M310" t="n">
+        <v>87.17</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -11343,6 +13207,12 @@
       <c r="K311" t="n">
         <v>206.15</v>
       </c>
+      <c r="L311" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="M311" t="n">
+        <v>98.17</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -11378,6 +13248,12 @@
       <c r="K312" t="n">
         <v>188.35</v>
       </c>
+      <c r="L312" t="n">
+        <v>21.65</v>
+      </c>
+      <c r="M312" t="n">
+        <v>89.69</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -11413,6 +13289,12 @@
       <c r="K313" t="n">
         <v>195.82</v>
       </c>
+      <c r="L313" t="n">
+        <v>14.18</v>
+      </c>
+      <c r="M313" t="n">
+        <v>93.25</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -11448,6 +13330,12 @@
       <c r="K314" t="n">
         <v>119.72</v>
       </c>
+      <c r="L314" t="n">
+        <v>90.28</v>
+      </c>
+      <c r="M314" t="n">
+        <v>57.01</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -11483,6 +13371,12 @@
       <c r="K315" t="n">
         <v>207.38</v>
       </c>
+      <c r="L315" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="M315" t="n">
+        <v>98.75</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -11518,6 +13412,12 @@
       <c r="K316" t="n">
         <v>233.15</v>
       </c>
+      <c r="L316" t="n">
+        <v>-23.15</v>
+      </c>
+      <c r="M316" t="n">
+        <v>111.02</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -11553,6 +13453,12 @@
       <c r="K317" t="n">
         <v>184.12</v>
       </c>
+      <c r="L317" t="n">
+        <v>25.88</v>
+      </c>
+      <c r="M317" t="n">
+        <v>87.68000000000001</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -11588,6 +13494,12 @@
       <c r="K318" t="n">
         <v>235.08</v>
       </c>
+      <c r="L318" t="n">
+        <v>-25.08</v>
+      </c>
+      <c r="M318" t="n">
+        <v>111.94</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -11623,6 +13535,12 @@
       <c r="K319" t="n">
         <v>183.57</v>
       </c>
+      <c r="L319" t="n">
+        <v>26.43</v>
+      </c>
+      <c r="M319" t="n">
+        <v>87.41</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -11658,6 +13576,12 @@
       <c r="K320" t="n">
         <v>216</v>
       </c>
+      <c r="L320" t="n">
+        <v>-6</v>
+      </c>
+      <c r="M320" t="n">
+        <v>102.86</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -11693,6 +13617,12 @@
       <c r="K321" t="n">
         <v>240.1</v>
       </c>
+      <c r="L321" t="n">
+        <v>-30.1</v>
+      </c>
+      <c r="M321" t="n">
+        <v>114.33</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -11728,6 +13658,12 @@
       <c r="K322" t="n">
         <v>197.92</v>
       </c>
+      <c r="L322" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="M322" t="n">
+        <v>94.25</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -11763,6 +13699,12 @@
       <c r="K323" t="n">
         <v>237.98</v>
       </c>
+      <c r="L323" t="n">
+        <v>-27.98</v>
+      </c>
+      <c r="M323" t="n">
+        <v>113.32</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -11796,7 +13738,13 @@
         <v>45637.74972222222</v>
       </c>
       <c r="K324" t="n">
-        <v>297.53</v>
+        <v>239.53</v>
+      </c>
+      <c r="L324" t="n">
+        <v>-29.53</v>
+      </c>
+      <c r="M324" t="n">
+        <v>114.06</v>
       </c>
     </row>
     <row r="325">
@@ -11833,6 +13781,12 @@
       <c r="K325" t="n">
         <v>124.38</v>
       </c>
+      <c r="L325" t="n">
+        <v>85.62</v>
+      </c>
+      <c r="M325" t="n">
+        <v>59.23</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -11868,6 +13822,12 @@
       <c r="K326" t="n">
         <v>237.92</v>
       </c>
+      <c r="L326" t="n">
+        <v>-27.92</v>
+      </c>
+      <c r="M326" t="n">
+        <v>113.3</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -11903,6 +13863,12 @@
       <c r="K327" t="n">
         <v>233.83</v>
       </c>
+      <c r="L327" t="n">
+        <v>-23.83</v>
+      </c>
+      <c r="M327" t="n">
+        <v>111.35</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -11938,6 +13904,12 @@
       <c r="K328" t="n">
         <v>119.35</v>
       </c>
+      <c r="L328" t="n">
+        <v>90.65000000000001</v>
+      </c>
+      <c r="M328" t="n">
+        <v>56.83</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -11973,6 +13945,12 @@
       <c r="K329" t="n">
         <v>239.02</v>
       </c>
+      <c r="L329" t="n">
+        <v>-29.02</v>
+      </c>
+      <c r="M329" t="n">
+        <v>113.82</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -12008,6 +13986,12 @@
       <c r="K330" t="n">
         <v>206.03</v>
       </c>
+      <c r="L330" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="M330" t="n">
+        <v>98.11</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -12043,6 +14027,12 @@
       <c r="K331" t="n">
         <v>234.42</v>
       </c>
+      <c r="L331" t="n">
+        <v>-24.42</v>
+      </c>
+      <c r="M331" t="n">
+        <v>111.63</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -12076,7 +14066,13 @@
         <v>45637.74259259259</v>
       </c>
       <c r="K332" t="n">
-        <v>259.32</v>
+        <v>229.32</v>
+      </c>
+      <c r="L332" t="n">
+        <v>-19.32</v>
+      </c>
+      <c r="M332" t="n">
+        <v>109.2</v>
       </c>
     </row>
     <row r="333">
@@ -12113,6 +14109,12 @@
       <c r="K333" t="n">
         <v>170.08</v>
       </c>
+      <c r="L333" t="n">
+        <v>39.92</v>
+      </c>
+      <c r="M333" t="n">
+        <v>80.98999999999999</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -12148,6 +14150,12 @@
       <c r="K334" t="n">
         <v>237.73</v>
       </c>
+      <c r="L334" t="n">
+        <v>-27.73</v>
+      </c>
+      <c r="M334" t="n">
+        <v>113.2</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -12183,6 +14191,12 @@
       <c r="K335" t="n">
         <v>240.02</v>
       </c>
+      <c r="L335" t="n">
+        <v>-30.02</v>
+      </c>
+      <c r="M335" t="n">
+        <v>114.3</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -12218,6 +14232,12 @@
       <c r="K336" t="n">
         <v>194.68</v>
       </c>
+      <c r="L336" t="n">
+        <v>15.32</v>
+      </c>
+      <c r="M336" t="n">
+        <v>92.7</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -12253,6 +14273,12 @@
       <c r="K337" t="n">
         <v>192.4</v>
       </c>
+      <c r="L337" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="M337" t="n">
+        <v>91.62</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -12288,6 +14314,12 @@
       <c r="K338" t="n">
         <v>136.67</v>
       </c>
+      <c r="L338" t="n">
+        <v>73.33</v>
+      </c>
+      <c r="M338" t="n">
+        <v>65.08</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -12323,6 +14355,12 @@
       <c r="K339" t="n">
         <v>236.18</v>
       </c>
+      <c r="L339" t="n">
+        <v>-26.18</v>
+      </c>
+      <c r="M339" t="n">
+        <v>112.47</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -12358,6 +14396,12 @@
       <c r="K340" t="n">
         <v>142.52</v>
       </c>
+      <c r="L340" t="n">
+        <v>67.48</v>
+      </c>
+      <c r="M340" t="n">
+        <v>67.87</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -12393,6 +14437,12 @@
       <c r="K341" t="n">
         <v>238.88</v>
       </c>
+      <c r="L341" t="n">
+        <v>-28.88</v>
+      </c>
+      <c r="M341" t="n">
+        <v>113.75</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -12428,6 +14478,12 @@
       <c r="K342" t="n">
         <v>159.23</v>
       </c>
+      <c r="L342" t="n">
+        <v>50.77</v>
+      </c>
+      <c r="M342" t="n">
+        <v>75.81999999999999</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -12461,7 +14517,13 @@
         <v>45637.75027777778</v>
       </c>
       <c r="K343" t="n">
-        <v>270.38</v>
+        <v>240.38</v>
+      </c>
+      <c r="L343" t="n">
+        <v>-30.38</v>
+      </c>
+      <c r="M343" t="n">
+        <v>114.47</v>
       </c>
     </row>
     <row r="344">
@@ -12496,7 +14558,13 @@
         <v>45637.73311342593</v>
       </c>
       <c r="K344" t="n">
-        <v>245.67</v>
+        <v>215.67</v>
+      </c>
+      <c r="L344" t="n">
+        <v>-5.67</v>
+      </c>
+      <c r="M344" t="n">
+        <v>102.7</v>
       </c>
     </row>
     <row r="345">
@@ -12533,6 +14601,12 @@
       <c r="K345" t="n">
         <v>168.43</v>
       </c>
+      <c r="L345" t="n">
+        <v>41.57</v>
+      </c>
+      <c r="M345" t="n">
+        <v>80.2</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -12568,6 +14642,12 @@
       <c r="K346" t="n">
         <v>139.52</v>
       </c>
+      <c r="L346" t="n">
+        <v>70.48</v>
+      </c>
+      <c r="M346" t="n">
+        <v>66.44</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -12603,6 +14683,12 @@
       <c r="K347" t="n">
         <v>208.05</v>
       </c>
+      <c r="L347" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="M347" t="n">
+        <v>99.06999999999999</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -12638,6 +14724,12 @@
       <c r="K348" t="n">
         <v>240.43</v>
       </c>
+      <c r="L348" t="n">
+        <v>-30.43</v>
+      </c>
+      <c r="M348" t="n">
+        <v>114.49</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -12673,6 +14765,12 @@
       <c r="K349" t="n">
         <v>240.7</v>
       </c>
+      <c r="L349" t="n">
+        <v>-30.7</v>
+      </c>
+      <c r="M349" t="n">
+        <v>114.62</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -12708,6 +14806,12 @@
       <c r="K350" t="n">
         <v>226.87</v>
       </c>
+      <c r="L350" t="n">
+        <v>-16.87</v>
+      </c>
+      <c r="M350" t="n">
+        <v>108.03</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -12743,6 +14847,12 @@
       <c r="K351" t="n">
         <v>83.84999999999999</v>
       </c>
+      <c r="L351" t="n">
+        <v>126.15</v>
+      </c>
+      <c r="M351" t="n">
+        <v>39.93</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -12778,6 +14888,12 @@
       <c r="K352" t="n">
         <v>238.45</v>
       </c>
+      <c r="L352" t="n">
+        <v>-28.45</v>
+      </c>
+      <c r="M352" t="n">
+        <v>113.55</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -12813,6 +14929,12 @@
       <c r="K353" t="n">
         <v>161.7</v>
       </c>
+      <c r="L353" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="M353" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -12848,6 +14970,12 @@
       <c r="K354" t="n">
         <v>229.37</v>
       </c>
+      <c r="L354" t="n">
+        <v>-19.37</v>
+      </c>
+      <c r="M354" t="n">
+        <v>109.22</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -12883,6 +15011,12 @@
       <c r="K355" t="n">
         <v>238.98</v>
       </c>
+      <c r="L355" t="n">
+        <v>-28.98</v>
+      </c>
+      <c r="M355" t="n">
+        <v>113.8</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -12918,6 +15052,12 @@
       <c r="K356" t="n">
         <v>142.7</v>
       </c>
+      <c r="L356" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="M356" t="n">
+        <v>67.95</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -12953,6 +15093,12 @@
       <c r="K357" t="n">
         <v>227.6</v>
       </c>
+      <c r="L357" t="n">
+        <v>-17.6</v>
+      </c>
+      <c r="M357" t="n">
+        <v>108.38</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -12988,6 +15134,12 @@
       <c r="K358" t="n">
         <v>140.23</v>
       </c>
+      <c r="L358" t="n">
+        <v>69.77</v>
+      </c>
+      <c r="M358" t="n">
+        <v>66.78</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -13023,6 +15175,12 @@
       <c r="K359" t="n">
         <v>229.93</v>
       </c>
+      <c r="L359" t="n">
+        <v>-19.93</v>
+      </c>
+      <c r="M359" t="n">
+        <v>109.49</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -13058,6 +15216,12 @@
       <c r="K360" t="n">
         <v>161.03</v>
       </c>
+      <c r="L360" t="n">
+        <v>48.97</v>
+      </c>
+      <c r="M360" t="n">
+        <v>76.68000000000001</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -13093,6 +15257,12 @@
       <c r="K361" t="n">
         <v>137.07</v>
       </c>
+      <c r="L361" t="n">
+        <v>72.93000000000001</v>
+      </c>
+      <c r="M361" t="n">
+        <v>65.27</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -13128,6 +15298,12 @@
       <c r="K362" t="n">
         <v>126.05</v>
       </c>
+      <c r="L362" t="n">
+        <v>83.95</v>
+      </c>
+      <c r="M362" t="n">
+        <v>60.02</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -13163,6 +15339,12 @@
       <c r="K363" t="n">
         <v>191.13</v>
       </c>
+      <c r="L363" t="n">
+        <v>18.87</v>
+      </c>
+      <c r="M363" t="n">
+        <v>91.01000000000001</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -13198,6 +15380,12 @@
       <c r="K364" t="n">
         <v>222.15</v>
       </c>
+      <c r="L364" t="n">
+        <v>-12.15</v>
+      </c>
+      <c r="M364" t="n">
+        <v>105.79</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -13233,6 +15421,12 @@
       <c r="K365" t="n">
         <v>146</v>
       </c>
+      <c r="L365" t="n">
+        <v>64</v>
+      </c>
+      <c r="M365" t="n">
+        <v>69.52</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -13268,6 +15462,12 @@
       <c r="K366" t="n">
         <v>171.53</v>
       </c>
+      <c r="L366" t="n">
+        <v>38.47</v>
+      </c>
+      <c r="M366" t="n">
+        <v>81.68000000000001</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -13303,6 +15503,12 @@
       <c r="K367" t="n">
         <v>209.25</v>
       </c>
+      <c r="L367" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="M367" t="n">
+        <v>99.64</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -13338,6 +15544,12 @@
       <c r="K368" t="n">
         <v>196.28</v>
       </c>
+      <c r="L368" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="M368" t="n">
+        <v>93.47</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -13373,6 +15585,12 @@
       <c r="K369" t="n">
         <v>211.77</v>
       </c>
+      <c r="L369" t="n">
+        <v>-1.77</v>
+      </c>
+      <c r="M369" t="n">
+        <v>100.84</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -13408,6 +15626,12 @@
       <c r="K370" t="n">
         <v>226.7</v>
       </c>
+      <c r="L370" t="n">
+        <v>-16.7</v>
+      </c>
+      <c r="M370" t="n">
+        <v>107.95</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -13443,6 +15667,12 @@
       <c r="K371" t="n">
         <v>239.93</v>
       </c>
+      <c r="L371" t="n">
+        <v>-29.93</v>
+      </c>
+      <c r="M371" t="n">
+        <v>114.25</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -13476,7 +15706,13 @@
         <v>45637.6621875</v>
       </c>
       <c r="K372" t="n">
-        <v>143.52</v>
+        <v>113.52</v>
+      </c>
+      <c r="L372" t="n">
+        <v>96.48</v>
+      </c>
+      <c r="M372" t="n">
+        <v>54.06</v>
       </c>
     </row>
     <row r="373">
@@ -13513,6 +15749,12 @@
       <c r="K373" t="n">
         <v>232.97</v>
       </c>
+      <c r="L373" t="n">
+        <v>-22.97</v>
+      </c>
+      <c r="M373" t="n">
+        <v>110.94</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -13548,6 +15790,12 @@
       <c r="K374" t="n">
         <v>235.73</v>
       </c>
+      <c r="L374" t="n">
+        <v>-25.73</v>
+      </c>
+      <c r="M374" t="n">
+        <v>112.25</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -13583,6 +15831,12 @@
       <c r="K375" t="n">
         <v>132.52</v>
       </c>
+      <c r="L375" t="n">
+        <v>77.48</v>
+      </c>
+      <c r="M375" t="n">
+        <v>63.1</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -13618,6 +15872,12 @@
       <c r="K376" t="n">
         <v>237.63</v>
       </c>
+      <c r="L376" t="n">
+        <v>-27.63</v>
+      </c>
+      <c r="M376" t="n">
+        <v>113.16</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -13653,6 +15913,12 @@
       <c r="K377" t="n">
         <v>233.92</v>
       </c>
+      <c r="L377" t="n">
+        <v>-23.92</v>
+      </c>
+      <c r="M377" t="n">
+        <v>111.39</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -13688,6 +15954,12 @@
       <c r="K378" t="n">
         <v>170.17</v>
       </c>
+      <c r="L378" t="n">
+        <v>39.83</v>
+      </c>
+      <c r="M378" t="n">
+        <v>81.03</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -13723,6 +15995,12 @@
       <c r="K379" t="n">
         <v>239.6</v>
       </c>
+      <c r="L379" t="n">
+        <v>-29.6</v>
+      </c>
+      <c r="M379" t="n">
+        <v>114.1</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -13758,6 +16036,12 @@
       <c r="K380" t="n">
         <v>238.55</v>
       </c>
+      <c r="L380" t="n">
+        <v>-28.55</v>
+      </c>
+      <c r="M380" t="n">
+        <v>113.6</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -13791,7 +16075,13 @@
         <v>45637.67700231481</v>
       </c>
       <c r="K381" t="n">
-        <v>164.73</v>
+        <v>134.73</v>
+      </c>
+      <c r="L381" t="n">
+        <v>75.27</v>
+      </c>
+      <c r="M381" t="n">
+        <v>64.16</v>
       </c>
     </row>
     <row r="382">
@@ -13828,6 +16118,12 @@
       <c r="K382" t="n">
         <v>216.3</v>
       </c>
+      <c r="L382" t="n">
+        <v>-6.3</v>
+      </c>
+      <c r="M382" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -13861,7 +16157,13 @@
         <v>45637.64983796296</v>
       </c>
       <c r="K383" t="n">
-        <v>125.75</v>
+        <v>95.75</v>
+      </c>
+      <c r="L383" t="n">
+        <v>114.25</v>
+      </c>
+      <c r="M383" t="n">
+        <v>45.6</v>
       </c>
     </row>
     <row r="384">
@@ -13898,6 +16200,12 @@
       <c r="K384" t="n">
         <v>140.1</v>
       </c>
+      <c r="L384" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="M384" t="n">
+        <v>66.70999999999999</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -13933,6 +16241,12 @@
       <c r="K385" t="n">
         <v>235.22</v>
       </c>
+      <c r="L385" t="n">
+        <v>-25.22</v>
+      </c>
+      <c r="M385" t="n">
+        <v>112.01</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -13968,6 +16282,12 @@
       <c r="K386" t="n">
         <v>105.38</v>
       </c>
+      <c r="L386" t="n">
+        <v>104.62</v>
+      </c>
+      <c r="M386" t="n">
+        <v>50.18</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -14003,6 +16323,12 @@
       <c r="K387" t="n">
         <v>239.28</v>
       </c>
+      <c r="L387" t="n">
+        <v>-29.28</v>
+      </c>
+      <c r="M387" t="n">
+        <v>113.94</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -14038,6 +16364,12 @@
       <c r="K388" t="n">
         <v>158.68</v>
       </c>
+      <c r="L388" t="n">
+        <v>51.32</v>
+      </c>
+      <c r="M388" t="n">
+        <v>75.56</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -14073,6 +16405,12 @@
       <c r="K389" t="n">
         <v>240.03</v>
       </c>
+      <c r="L389" t="n">
+        <v>-30.03</v>
+      </c>
+      <c r="M389" t="n">
+        <v>114.3</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -14106,7 +16444,13 @@
         <v>45637.70820601852</v>
       </c>
       <c r="K390" t="n">
-        <v>240.8</v>
+        <v>179.8</v>
+      </c>
+      <c r="L390" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="M390" t="n">
+        <v>85.62</v>
       </c>
     </row>
     <row r="391">
@@ -14143,6 +16487,12 @@
       <c r="K391" t="n">
         <v>238.1</v>
       </c>
+      <c r="L391" t="n">
+        <v>-28.1</v>
+      </c>
+      <c r="M391" t="n">
+        <v>113.38</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -14178,6 +16528,12 @@
       <c r="K392" t="n">
         <v>94.42</v>
       </c>
+      <c r="L392" t="n">
+        <v>115.58</v>
+      </c>
+      <c r="M392" t="n">
+        <v>44.96</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -14213,6 +16569,12 @@
       <c r="K393" t="n">
         <v>183.43</v>
       </c>
+      <c r="L393" t="n">
+        <v>26.57</v>
+      </c>
+      <c r="M393" t="n">
+        <v>87.34999999999999</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -14246,7 +16608,13 @@
         <v>45637.74776620371</v>
       </c>
       <c r="K394" t="n">
-        <v>266.73</v>
+        <v>236.73</v>
+      </c>
+      <c r="L394" t="n">
+        <v>-26.73</v>
+      </c>
+      <c r="M394" t="n">
+        <v>112.73</v>
       </c>
     </row>
     <row r="395">
@@ -14281,7 +16649,13 @@
         <v>45637.74990740741</v>
       </c>
       <c r="K395" t="n">
-        <v>269.85</v>
+        <v>239.85</v>
+      </c>
+      <c r="L395" t="n">
+        <v>-29.85</v>
+      </c>
+      <c r="M395" t="n">
+        <v>114.21</v>
       </c>
     </row>
     <row r="396">
@@ -14318,6 +16692,12 @@
       <c r="K396" t="n">
         <v>203.28</v>
       </c>
+      <c r="L396" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="M396" t="n">
+        <v>96.8</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -14353,6 +16733,12 @@
       <c r="K397" t="n">
         <v>203.27</v>
       </c>
+      <c r="L397" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="M397" t="n">
+        <v>96.8</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -14388,6 +16774,12 @@
       <c r="K398" t="n">
         <v>158.17</v>
       </c>
+      <c r="L398" t="n">
+        <v>51.83</v>
+      </c>
+      <c r="M398" t="n">
+        <v>75.31999999999999</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -14423,6 +16815,12 @@
       <c r="K399" t="n">
         <v>240.05</v>
       </c>
+      <c r="L399" t="n">
+        <v>-30.05</v>
+      </c>
+      <c r="M399" t="n">
+        <v>114.31</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -14456,7 +16854,13 @@
         <v>45637.64085648148</v>
       </c>
       <c r="K400" t="n">
-        <v>112.8</v>
+        <v>82.8</v>
+      </c>
+      <c r="L400" t="n">
+        <v>127.2</v>
+      </c>
+      <c r="M400" t="n">
+        <v>39.43</v>
       </c>
     </row>
     <row r="401">
@@ -14493,6 +16897,12 @@
       <c r="K401" t="n">
         <v>235.92</v>
       </c>
+      <c r="L401" t="n">
+        <v>-25.92</v>
+      </c>
+      <c r="M401" t="n">
+        <v>112.34</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -14528,6 +16938,12 @@
       <c r="K402" t="n">
         <v>240.18</v>
       </c>
+      <c r="L402" t="n">
+        <v>-30.18</v>
+      </c>
+      <c r="M402" t="n">
+        <v>114.37</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -14563,6 +16979,12 @@
       <c r="K403" t="n">
         <v>117.37</v>
       </c>
+      <c r="L403" t="n">
+        <v>92.63</v>
+      </c>
+      <c r="M403" t="n">
+        <v>55.89</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -14598,6 +17020,12 @@
       <c r="K404" t="n">
         <v>174.75</v>
       </c>
+      <c r="L404" t="n">
+        <v>35.25</v>
+      </c>
+      <c r="M404" t="n">
+        <v>83.20999999999999</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -14633,6 +17061,12 @@
       <c r="K405" t="n">
         <v>221.93</v>
       </c>
+      <c r="L405" t="n">
+        <v>-11.93</v>
+      </c>
+      <c r="M405" t="n">
+        <v>105.68</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -14666,7 +17100,13 @@
         <v>45637.72893518519</v>
       </c>
       <c r="K406" t="n">
-        <v>239.63</v>
+        <v>209.63</v>
+      </c>
+      <c r="L406" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="M406" t="n">
+        <v>99.81999999999999</v>
       </c>
     </row>
     <row r="407">
@@ -14703,6 +17143,12 @@
       <c r="K407" t="n">
         <v>237.53</v>
       </c>
+      <c r="L407" t="n">
+        <v>-27.53</v>
+      </c>
+      <c r="M407" t="n">
+        <v>113.11</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -14738,6 +17184,12 @@
       <c r="K408" t="n">
         <v>236.1</v>
       </c>
+      <c r="L408" t="n">
+        <v>-26.1</v>
+      </c>
+      <c r="M408" t="n">
+        <v>112.43</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -14773,6 +17225,12 @@
       <c r="K409" t="n">
         <v>204.55</v>
       </c>
+      <c r="L409" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="M409" t="n">
+        <v>97.40000000000001</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -14808,6 +17266,12 @@
       <c r="K410" t="n">
         <v>131.9</v>
       </c>
+      <c r="L410" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="M410" t="n">
+        <v>62.81</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -14843,6 +17307,12 @@
       <c r="K411" t="n">
         <v>222.22</v>
       </c>
+      <c r="L411" t="n">
+        <v>-12.22</v>
+      </c>
+      <c r="M411" t="n">
+        <v>105.82</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -14878,6 +17348,12 @@
       <c r="K412" t="n">
         <v>211.73</v>
       </c>
+      <c r="L412" t="n">
+        <v>-1.73</v>
+      </c>
+      <c r="M412" t="n">
+        <v>100.82</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -14913,6 +17389,12 @@
       <c r="K413" t="n">
         <v>40.75</v>
       </c>
+      <c r="L413" t="n">
+        <v>169.25</v>
+      </c>
+      <c r="M413" t="n">
+        <v>19.4</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -14948,6 +17430,12 @@
       <c r="K414" t="n">
         <v>213.53</v>
       </c>
+      <c r="L414" t="n">
+        <v>-3.53</v>
+      </c>
+      <c r="M414" t="n">
+        <v>101.68</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
@@ -14983,6 +17471,12 @@
       <c r="K415" t="n">
         <v>185.57</v>
       </c>
+      <c r="L415" t="n">
+        <v>24.43</v>
+      </c>
+      <c r="M415" t="n">
+        <v>88.37</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -15018,6 +17512,12 @@
       <c r="K416" t="n">
         <v>239.35</v>
       </c>
+      <c r="L416" t="n">
+        <v>-29.35</v>
+      </c>
+      <c r="M416" t="n">
+        <v>113.98</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -15053,6 +17553,12 @@
       <c r="K417" t="n">
         <v>147.12</v>
       </c>
+      <c r="L417" t="n">
+        <v>62.88</v>
+      </c>
+      <c r="M417" t="n">
+        <v>70.06</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -15088,6 +17594,12 @@
       <c r="K418" t="n">
         <v>130.23</v>
       </c>
+      <c r="L418" t="n">
+        <v>79.77</v>
+      </c>
+      <c r="M418" t="n">
+        <v>62.01</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
@@ -15121,7 +17633,13 @@
         <v>45637.74954861111</v>
       </c>
       <c r="K419" t="n">
-        <v>269.33</v>
+        <v>239.33</v>
+      </c>
+      <c r="L419" t="n">
+        <v>-29.33</v>
+      </c>
+      <c r="M419" t="n">
+        <v>113.97</v>
       </c>
     </row>
     <row r="420">
@@ -15158,6 +17676,12 @@
       <c r="K420" t="n">
         <v>159.25</v>
       </c>
+      <c r="L420" t="n">
+        <v>50.75</v>
+      </c>
+      <c r="M420" t="n">
+        <v>75.83</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
@@ -15193,6 +17717,12 @@
       <c r="K421" t="n">
         <v>219.08</v>
       </c>
+      <c r="L421" t="n">
+        <v>-9.08</v>
+      </c>
+      <c r="M421" t="n">
+        <v>104.32</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
@@ -15228,6 +17758,12 @@
       <c r="K422" t="n">
         <v>81.93000000000001</v>
       </c>
+      <c r="L422" t="n">
+        <v>128.07</v>
+      </c>
+      <c r="M422" t="n">
+        <v>39.01</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
@@ -15263,6 +17799,12 @@
       <c r="K423" t="n">
         <v>239.47</v>
       </c>
+      <c r="L423" t="n">
+        <v>-29.47</v>
+      </c>
+      <c r="M423" t="n">
+        <v>114.03</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
@@ -15298,6 +17840,12 @@
       <c r="K424" t="n">
         <v>239.88</v>
       </c>
+      <c r="L424" t="n">
+        <v>-29.88</v>
+      </c>
+      <c r="M424" t="n">
+        <v>114.23</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
@@ -15333,6 +17881,12 @@
       <c r="K425" t="n">
         <v>143.12</v>
       </c>
+      <c r="L425" t="n">
+        <v>66.88</v>
+      </c>
+      <c r="M425" t="n">
+        <v>68.15000000000001</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -15368,6 +17922,12 @@
       <c r="K426" t="n">
         <v>240.02</v>
       </c>
+      <c r="L426" t="n">
+        <v>-30.02</v>
+      </c>
+      <c r="M426" t="n">
+        <v>114.3</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
@@ -15403,6 +17963,12 @@
       <c r="K427" t="n">
         <v>231.12</v>
       </c>
+      <c r="L427" t="n">
+        <v>-21.12</v>
+      </c>
+      <c r="M427" t="n">
+        <v>110.06</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -15438,6 +18004,12 @@
       <c r="K428" t="n">
         <v>228.08</v>
       </c>
+      <c r="L428" t="n">
+        <v>-18.08</v>
+      </c>
+      <c r="M428" t="n">
+        <v>108.61</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
@@ -15473,6 +18045,12 @@
       <c r="K429" t="n">
         <v>195.42</v>
       </c>
+      <c r="L429" t="n">
+        <v>14.58</v>
+      </c>
+      <c r="M429" t="n">
+        <v>93.06</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
@@ -15508,6 +18086,12 @@
       <c r="K430" t="n">
         <v>227.22</v>
       </c>
+      <c r="L430" t="n">
+        <v>-17.22</v>
+      </c>
+      <c r="M430" t="n">
+        <v>108.2</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
@@ -15541,7 +18125,13 @@
         <v>45637.69434027778</v>
       </c>
       <c r="K431" t="n">
-        <v>189.78</v>
+        <v>159.78</v>
+      </c>
+      <c r="L431" t="n">
+        <v>50.22</v>
+      </c>
+      <c r="M431" t="n">
+        <v>76.09</v>
       </c>
     </row>
     <row r="432">
@@ -15578,6 +18168,12 @@
       <c r="K432" t="n">
         <v>227</v>
       </c>
+      <c r="L432" t="n">
+        <v>-17</v>
+      </c>
+      <c r="M432" t="n">
+        <v>108.1</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
@@ -15613,6 +18209,12 @@
       <c r="K433" t="n">
         <v>235</v>
       </c>
+      <c r="L433" t="n">
+        <v>-25</v>
+      </c>
+      <c r="M433" t="n">
+        <v>111.9</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
@@ -15648,6 +18250,12 @@
       <c r="K434" t="n">
         <v>93.62</v>
       </c>
+      <c r="L434" t="n">
+        <v>116.38</v>
+      </c>
+      <c r="M434" t="n">
+        <v>44.58</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
@@ -15681,7 +18289,13 @@
         <v>45637.74317129629</v>
       </c>
       <c r="K435" t="n">
-        <v>260.12</v>
+        <v>230.12</v>
+      </c>
+      <c r="L435" t="n">
+        <v>-20.12</v>
+      </c>
+      <c r="M435" t="n">
+        <v>109.58</v>
       </c>
     </row>
     <row r="436">
@@ -15718,6 +18332,12 @@
       <c r="K436" t="n">
         <v>240.1</v>
       </c>
+      <c r="L436" t="n">
+        <v>-30.1</v>
+      </c>
+      <c r="M436" t="n">
+        <v>114.33</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -15753,6 +18373,12 @@
       <c r="K437" t="n">
         <v>124.35</v>
       </c>
+      <c r="L437" t="n">
+        <v>85.65000000000001</v>
+      </c>
+      <c r="M437" t="n">
+        <v>59.21</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
@@ -15788,6 +18414,12 @@
       <c r="K438" t="n">
         <v>154.35</v>
       </c>
+      <c r="L438" t="n">
+        <v>55.65</v>
+      </c>
+      <c r="M438" t="n">
+        <v>73.5</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
@@ -15823,6 +18455,12 @@
       <c r="K439" t="n">
         <v>218.88</v>
       </c>
+      <c r="L439" t="n">
+        <v>-8.880000000000001</v>
+      </c>
+      <c r="M439" t="n">
+        <v>104.23</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
@@ -15858,6 +18496,12 @@
       <c r="K440" t="n">
         <v>240.03</v>
       </c>
+      <c r="L440" t="n">
+        <v>-30.03</v>
+      </c>
+      <c r="M440" t="n">
+        <v>114.3</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
@@ -15893,6 +18537,12 @@
       <c r="K441" t="n">
         <v>234.15</v>
       </c>
+      <c r="L441" t="n">
+        <v>-24.15</v>
+      </c>
+      <c r="M441" t="n">
+        <v>111.5</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -15926,7 +18576,13 @@
         <v>45637.73677083333</v>
       </c>
       <c r="K442" t="n">
-        <v>250.93</v>
+        <v>220.93</v>
+      </c>
+      <c r="L442" t="n">
+        <v>-10.93</v>
+      </c>
+      <c r="M442" t="n">
+        <v>105.2</v>
       </c>
     </row>
     <row r="443">
@@ -15961,7 +18617,13 @@
         <v>45637.74210648148</v>
       </c>
       <c r="K443" t="n">
-        <v>258.62</v>
+        <v>228.62</v>
+      </c>
+      <c r="L443" t="n">
+        <v>-18.62</v>
+      </c>
+      <c r="M443" t="n">
+        <v>108.87</v>
       </c>
     </row>
     <row r="444">
@@ -15998,6 +18660,12 @@
       <c r="K444" t="n">
         <v>213</v>
       </c>
+      <c r="L444" t="n">
+        <v>-3</v>
+      </c>
+      <c r="M444" t="n">
+        <v>101.43</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
@@ -16033,6 +18701,12 @@
       <c r="K445" t="n">
         <v>134.82</v>
       </c>
+      <c r="L445" t="n">
+        <v>75.18000000000001</v>
+      </c>
+      <c r="M445" t="n">
+        <v>64.2</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
@@ -16068,6 +18742,12 @@
       <c r="K446" t="n">
         <v>124.82</v>
       </c>
+      <c r="L446" t="n">
+        <v>85.18000000000001</v>
+      </c>
+      <c r="M446" t="n">
+        <v>59.44</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
@@ -16103,6 +18783,12 @@
       <c r="K447" t="n">
         <v>238.5</v>
       </c>
+      <c r="L447" t="n">
+        <v>-28.5</v>
+      </c>
+      <c r="M447" t="n">
+        <v>113.57</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
@@ -16138,6 +18824,12 @@
       <c r="K448" t="n">
         <v>141.6</v>
       </c>
+      <c r="L448" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="M448" t="n">
+        <v>67.43000000000001</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
@@ -16171,7 +18863,13 @@
         <v>45637.74971064815</v>
       </c>
       <c r="K449" t="n">
-        <v>269.55</v>
+        <v>239.55</v>
+      </c>
+      <c r="L449" t="n">
+        <v>-29.55</v>
+      </c>
+      <c r="M449" t="n">
+        <v>114.07</v>
       </c>
     </row>
     <row r="450">
@@ -16208,6 +18906,12 @@
       <c r="K450" t="n">
         <v>196.95</v>
       </c>
+      <c r="L450" t="n">
+        <v>13.05</v>
+      </c>
+      <c r="M450" t="n">
+        <v>93.79000000000001</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
@@ -16243,6 +18947,12 @@
       <c r="K451" t="n">
         <v>236.02</v>
       </c>
+      <c r="L451" t="n">
+        <v>-26.02</v>
+      </c>
+      <c r="M451" t="n">
+        <v>112.39</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
@@ -16278,6 +18988,12 @@
       <c r="K452" t="n">
         <v>238.75</v>
       </c>
+      <c r="L452" t="n">
+        <v>-28.75</v>
+      </c>
+      <c r="M452" t="n">
+        <v>113.69</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
@@ -16313,6 +19029,12 @@
       <c r="K453" t="n">
         <v>178.3</v>
       </c>
+      <c r="L453" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="M453" t="n">
+        <v>84.90000000000001</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
@@ -16348,6 +19070,12 @@
       <c r="K454" t="n">
         <v>237.63</v>
       </c>
+      <c r="L454" t="n">
+        <v>-27.63</v>
+      </c>
+      <c r="M454" t="n">
+        <v>113.16</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
@@ -16383,6 +19111,12 @@
       <c r="K455" t="n">
         <v>228.7</v>
       </c>
+      <c r="L455" t="n">
+        <v>-18.7</v>
+      </c>
+      <c r="M455" t="n">
+        <v>108.9</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
@@ -16418,6 +19152,12 @@
       <c r="K456" t="n">
         <v>198.65</v>
       </c>
+      <c r="L456" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="M456" t="n">
+        <v>94.59999999999999</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
@@ -16453,6 +19193,12 @@
       <c r="K457" t="n">
         <v>228.77</v>
       </c>
+      <c r="L457" t="n">
+        <v>-18.77</v>
+      </c>
+      <c r="M457" t="n">
+        <v>108.94</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
@@ -16488,6 +19234,12 @@
       <c r="K458" t="n">
         <v>207</v>
       </c>
+      <c r="L458" t="n">
+        <v>3</v>
+      </c>
+      <c r="M458" t="n">
+        <v>98.56999999999999</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
@@ -16523,6 +19275,12 @@
       <c r="K459" t="n">
         <v>138.1</v>
       </c>
+      <c r="L459" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="M459" t="n">
+        <v>65.76000000000001</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
@@ -16558,6 +19316,12 @@
       <c r="K460" t="n">
         <v>113.48</v>
       </c>
+      <c r="L460" t="n">
+        <v>96.52</v>
+      </c>
+      <c r="M460" t="n">
+        <v>54.04</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
@@ -16593,6 +19357,12 @@
       <c r="K461" t="n">
         <v>240.47</v>
       </c>
+      <c r="L461" t="n">
+        <v>-30.47</v>
+      </c>
+      <c r="M461" t="n">
+        <v>114.51</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
@@ -16628,6 +19398,12 @@
       <c r="K462" t="n">
         <v>171.52</v>
       </c>
+      <c r="L462" t="n">
+        <v>38.48</v>
+      </c>
+      <c r="M462" t="n">
+        <v>81.68000000000001</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
@@ -16663,6 +19439,12 @@
       <c r="K463" t="n">
         <v>202.73</v>
       </c>
+      <c r="L463" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="M463" t="n">
+        <v>96.54000000000001</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
@@ -16698,6 +19480,12 @@
       <c r="K464" t="n">
         <v>240.3</v>
       </c>
+      <c r="L464" t="n">
+        <v>-30.3</v>
+      </c>
+      <c r="M464" t="n">
+        <v>114.43</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
@@ -16733,6 +19521,12 @@
       <c r="K465" t="n">
         <v>91.28</v>
       </c>
+      <c r="L465" t="n">
+        <v>118.72</v>
+      </c>
+      <c r="M465" t="n">
+        <v>43.47</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
@@ -16768,6 +19562,12 @@
       <c r="K466" t="n">
         <v>236.83</v>
       </c>
+      <c r="L466" t="n">
+        <v>-26.83</v>
+      </c>
+      <c r="M466" t="n">
+        <v>112.78</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
@@ -16803,6 +19603,12 @@
       <c r="K467" t="n">
         <v>176.23</v>
       </c>
+      <c r="L467" t="n">
+        <v>33.77</v>
+      </c>
+      <c r="M467" t="n">
+        <v>83.92</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
@@ -16838,6 +19644,12 @@
       <c r="K468" t="n">
         <v>176.67</v>
       </c>
+      <c r="L468" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="M468" t="n">
+        <v>84.13</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
@@ -16873,6 +19685,12 @@
       <c r="K469" t="n">
         <v>224</v>
       </c>
+      <c r="L469" t="n">
+        <v>-14</v>
+      </c>
+      <c r="M469" t="n">
+        <v>106.67</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
@@ -16908,6 +19726,12 @@
       <c r="K470" t="n">
         <v>234.3</v>
       </c>
+      <c r="L470" t="n">
+        <v>-24.3</v>
+      </c>
+      <c r="M470" t="n">
+        <v>111.57</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
@@ -16943,6 +19767,12 @@
       <c r="K471" t="n">
         <v>239.45</v>
       </c>
+      <c r="L471" t="n">
+        <v>-29.45</v>
+      </c>
+      <c r="M471" t="n">
+        <v>114.02</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
@@ -16978,6 +19808,12 @@
       <c r="K472" t="n">
         <v>239.48</v>
       </c>
+      <c r="L472" t="n">
+        <v>-29.48</v>
+      </c>
+      <c r="M472" t="n">
+        <v>114.04</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
@@ -17013,6 +19849,12 @@
       <c r="K473" t="n">
         <v>203.78</v>
       </c>
+      <c r="L473" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="M473" t="n">
+        <v>97.04000000000001</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
@@ -17048,6 +19890,12 @@
       <c r="K474" t="n">
         <v>240.73</v>
       </c>
+      <c r="L474" t="n">
+        <v>-30.73</v>
+      </c>
+      <c r="M474" t="n">
+        <v>114.63</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
@@ -17083,6 +19931,12 @@
       <c r="K475" t="n">
         <v>239.42</v>
       </c>
+      <c r="L475" t="n">
+        <v>-29.42</v>
+      </c>
+      <c r="M475" t="n">
+        <v>114.01</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
@@ -17118,6 +19972,12 @@
       <c r="K476" t="n">
         <v>208.18</v>
       </c>
+      <c r="L476" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="M476" t="n">
+        <v>99.13</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
@@ -17153,6 +20013,12 @@
       <c r="K477" t="n">
         <v>117.35</v>
       </c>
+      <c r="L477" t="n">
+        <v>92.65000000000001</v>
+      </c>
+      <c r="M477" t="n">
+        <v>55.88</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
@@ -17188,6 +20054,12 @@
       <c r="K478" t="n">
         <v>220.03</v>
       </c>
+      <c r="L478" t="n">
+        <v>-10.03</v>
+      </c>
+      <c r="M478" t="n">
+        <v>104.78</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
@@ -17223,6 +20095,12 @@
       <c r="K479" t="n">
         <v>96.40000000000001</v>
       </c>
+      <c r="L479" t="n">
+        <v>113.6</v>
+      </c>
+      <c r="M479" t="n">
+        <v>45.9</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
@@ -17258,6 +20136,12 @@
       <c r="K480" t="n">
         <v>239.55</v>
       </c>
+      <c r="L480" t="n">
+        <v>-29.55</v>
+      </c>
+      <c r="M480" t="n">
+        <v>114.07</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
@@ -17293,6 +20177,12 @@
       <c r="K481" t="n">
         <v>239.35</v>
       </c>
+      <c r="L481" t="n">
+        <v>-29.35</v>
+      </c>
+      <c r="M481" t="n">
+        <v>113.98</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
@@ -17328,6 +20218,12 @@
       <c r="K482" t="n">
         <v>163</v>
       </c>
+      <c r="L482" t="n">
+        <v>47</v>
+      </c>
+      <c r="M482" t="n">
+        <v>77.62</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
@@ -17363,6 +20259,12 @@
       <c r="K483" t="n">
         <v>188.37</v>
       </c>
+      <c r="L483" t="n">
+        <v>21.63</v>
+      </c>
+      <c r="M483" t="n">
+        <v>89.7</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
@@ -17398,6 +20300,12 @@
       <c r="K484" t="n">
         <v>238.4</v>
       </c>
+      <c r="L484" t="n">
+        <v>-28.4</v>
+      </c>
+      <c r="M484" t="n">
+        <v>113.52</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
@@ -17433,6 +20341,12 @@
       <c r="K485" t="n">
         <v>186.93</v>
       </c>
+      <c r="L485" t="n">
+        <v>23.07</v>
+      </c>
+      <c r="M485" t="n">
+        <v>89.01000000000001</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
@@ -17466,7 +20380,13 @@
         <v>45637.6988425926</v>
       </c>
       <c r="K486" t="n">
-        <v>196.25</v>
+        <v>166.25</v>
+      </c>
+      <c r="L486" t="n">
+        <v>43.75</v>
+      </c>
+      <c r="M486" t="n">
+        <v>79.17</v>
       </c>
     </row>
     <row r="487">
@@ -17503,6 +20423,12 @@
       <c r="K487" t="n">
         <v>238.83</v>
       </c>
+      <c r="L487" t="n">
+        <v>-28.83</v>
+      </c>
+      <c r="M487" t="n">
+        <v>113.73</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
@@ -17538,6 +20464,12 @@
       <c r="K488" t="n">
         <v>138.68</v>
       </c>
+      <c r="L488" t="n">
+        <v>71.31999999999999</v>
+      </c>
+      <c r="M488" t="n">
+        <v>66.04000000000001</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
@@ -17573,6 +20505,12 @@
       <c r="K489" t="n">
         <v>202.62</v>
       </c>
+      <c r="L489" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="M489" t="n">
+        <v>96.48999999999999</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
@@ -17608,6 +20546,12 @@
       <c r="K490" t="n">
         <v>141.27</v>
       </c>
+      <c r="L490" t="n">
+        <v>68.73</v>
+      </c>
+      <c r="M490" t="n">
+        <v>67.27</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
@@ -17641,7 +20585,13 @@
         <v>45637.65037037037</v>
       </c>
       <c r="K491" t="n">
-        <v>126.5</v>
+        <v>96.5</v>
+      </c>
+      <c r="L491" t="n">
+        <v>113.5</v>
+      </c>
+      <c r="M491" t="n">
+        <v>45.95</v>
       </c>
     </row>
     <row r="492">
@@ -17678,6 +20628,12 @@
       <c r="K492" t="n">
         <v>138.05</v>
       </c>
+      <c r="L492" t="n">
+        <v>71.95</v>
+      </c>
+      <c r="M492" t="n">
+        <v>65.73999999999999</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
@@ -17713,6 +20669,12 @@
       <c r="K493" t="n">
         <v>209.85</v>
       </c>
+      <c r="L493" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="M493" t="n">
+        <v>99.93000000000001</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
@@ -17748,6 +20710,12 @@
       <c r="K494" t="n">
         <v>239.12</v>
       </c>
+      <c r="L494" t="n">
+        <v>-29.12</v>
+      </c>
+      <c r="M494" t="n">
+        <v>113.87</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
@@ -17783,6 +20751,12 @@
       <c r="K495" t="n">
         <v>212.48</v>
       </c>
+      <c r="L495" t="n">
+        <v>-2.48</v>
+      </c>
+      <c r="M495" t="n">
+        <v>101.18</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
@@ -17818,6 +20792,12 @@
       <c r="K496" t="n">
         <v>116.05</v>
       </c>
+      <c r="L496" t="n">
+        <v>93.95</v>
+      </c>
+      <c r="M496" t="n">
+        <v>55.26</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
@@ -17853,6 +20833,12 @@
       <c r="K497" t="n">
         <v>193.52</v>
       </c>
+      <c r="L497" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="M497" t="n">
+        <v>92.15000000000001</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
@@ -17888,6 +20874,12 @@
       <c r="K498" t="n">
         <v>239.62</v>
       </c>
+      <c r="L498" t="n">
+        <v>-29.62</v>
+      </c>
+      <c r="M498" t="n">
+        <v>114.1</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
@@ -17923,6 +20915,12 @@
       <c r="K499" t="n">
         <v>238.88</v>
       </c>
+      <c r="L499" t="n">
+        <v>-28.88</v>
+      </c>
+      <c r="M499" t="n">
+        <v>113.75</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
@@ -17958,6 +20956,12 @@
       <c r="K500" t="n">
         <v>158.4</v>
       </c>
+      <c r="L500" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="M500" t="n">
+        <v>75.43000000000001</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
@@ -17993,6 +20997,12 @@
       <c r="K501" t="n">
         <v>202.5</v>
       </c>
+      <c r="L501" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M501" t="n">
+        <v>96.43000000000001</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
@@ -18028,6 +21038,12 @@
       <c r="K502" t="n">
         <v>240.33</v>
       </c>
+      <c r="L502" t="n">
+        <v>-30.33</v>
+      </c>
+      <c r="M502" t="n">
+        <v>114.44</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
@@ -18063,6 +21079,12 @@
       <c r="K503" t="n">
         <v>207.45</v>
       </c>
+      <c r="L503" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="M503" t="n">
+        <v>98.79000000000001</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
@@ -18098,6 +21120,12 @@
       <c r="K504" t="n">
         <v>116.57</v>
       </c>
+      <c r="L504" t="n">
+        <v>93.43000000000001</v>
+      </c>
+      <c r="M504" t="n">
+        <v>55.51</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
@@ -18133,6 +21161,12 @@
       <c r="K505" t="n">
         <v>233.05</v>
       </c>
+      <c r="L505" t="n">
+        <v>-23.05</v>
+      </c>
+      <c r="M505" t="n">
+        <v>110.98</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
@@ -18168,6 +21202,12 @@
       <c r="K506" t="n">
         <v>215.2</v>
       </c>
+      <c r="L506" t="n">
+        <v>-5.2</v>
+      </c>
+      <c r="M506" t="n">
+        <v>102.48</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
@@ -18203,6 +21243,12 @@
       <c r="K507" t="n">
         <v>171.63</v>
       </c>
+      <c r="L507" t="n">
+        <v>38.37</v>
+      </c>
+      <c r="M507" t="n">
+        <v>81.73</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
@@ -18238,6 +21284,12 @@
       <c r="K508" t="n">
         <v>183.95</v>
       </c>
+      <c r="L508" t="n">
+        <v>26.05</v>
+      </c>
+      <c r="M508" t="n">
+        <v>87.59999999999999</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
@@ -18273,6 +21325,12 @@
       <c r="K509" t="n">
         <v>170.38</v>
       </c>
+      <c r="L509" t="n">
+        <v>39.62</v>
+      </c>
+      <c r="M509" t="n">
+        <v>81.13</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
@@ -18306,7 +21364,13 @@
         <v>45637.74990740741</v>
       </c>
       <c r="K510" t="n">
-        <v>269.83</v>
+        <v>239.83</v>
+      </c>
+      <c r="L510" t="n">
+        <v>-29.83</v>
+      </c>
+      <c r="M510" t="n">
+        <v>114.2</v>
       </c>
     </row>
     <row r="511">
@@ -18341,7 +21405,13 @@
         <v>45637.73641203704</v>
       </c>
       <c r="K511" t="n">
-        <v>250.4</v>
+        <v>220.4</v>
+      </c>
+      <c r="L511" t="n">
+        <v>-10.4</v>
+      </c>
+      <c r="M511" t="n">
+        <v>104.95</v>
       </c>
     </row>
     <row r="512">
@@ -18378,6 +21448,12 @@
       <c r="K512" t="n">
         <v>229.55</v>
       </c>
+      <c r="L512" t="n">
+        <v>-19.55</v>
+      </c>
+      <c r="M512" t="n">
+        <v>109.31</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
@@ -18413,6 +21489,12 @@
       <c r="K513" t="n">
         <v>179.77</v>
       </c>
+      <c r="L513" t="n">
+        <v>30.23</v>
+      </c>
+      <c r="M513" t="n">
+        <v>85.59999999999999</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
@@ -18448,6 +21530,12 @@
       <c r="K514" t="n">
         <v>239.88</v>
       </c>
+      <c r="L514" t="n">
+        <v>-29.88</v>
+      </c>
+      <c r="M514" t="n">
+        <v>114.23</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
@@ -18483,6 +21571,12 @@
       <c r="K515" t="n">
         <v>220.13</v>
       </c>
+      <c r="L515" t="n">
+        <v>-10.13</v>
+      </c>
+      <c r="M515" t="n">
+        <v>104.82</v>
+      </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
@@ -18518,6 +21612,12 @@
       <c r="K516" t="n">
         <v>240.05</v>
       </c>
+      <c r="L516" t="n">
+        <v>-30.05</v>
+      </c>
+      <c r="M516" t="n">
+        <v>114.31</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
@@ -18553,6 +21653,12 @@
       <c r="K517" t="n">
         <v>236.35</v>
       </c>
+      <c r="L517" t="n">
+        <v>-26.35</v>
+      </c>
+      <c r="M517" t="n">
+        <v>112.55</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
@@ -18588,6 +21694,12 @@
       <c r="K518" t="n">
         <v>238.95</v>
       </c>
+      <c r="L518" t="n">
+        <v>-28.95</v>
+      </c>
+      <c r="M518" t="n">
+        <v>113.79</v>
+      </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
@@ -18623,6 +21735,12 @@
       <c r="K519" t="n">
         <v>144.9</v>
       </c>
+      <c r="L519" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="M519" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
@@ -18656,7 +21774,13 @@
         <v>45637.71575231481</v>
       </c>
       <c r="K520" t="n">
-        <v>220.67</v>
+        <v>190.67</v>
+      </c>
+      <c r="L520" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="M520" t="n">
+        <v>90.8</v>
       </c>
     </row>
     <row r="521">
@@ -18693,6 +21817,12 @@
       <c r="K521" t="n">
         <v>236.6</v>
       </c>
+      <c r="L521" t="n">
+        <v>-26.6</v>
+      </c>
+      <c r="M521" t="n">
+        <v>112.67</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
@@ -18728,6 +21858,12 @@
       <c r="K522" t="n">
         <v>203.58</v>
       </c>
+      <c r="L522" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="M522" t="n">
+        <v>96.94</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
@@ -18761,7 +21897,13 @@
         <v>45637.74752314815</v>
       </c>
       <c r="K523" t="n">
-        <v>266.38</v>
+        <v>236.38</v>
+      </c>
+      <c r="L523" t="n">
+        <v>-26.38</v>
+      </c>
+      <c r="M523" t="n">
+        <v>112.56</v>
       </c>
     </row>
     <row r="524">
@@ -18796,7 +21938,13 @@
         <v>45637.67033564814</v>
       </c>
       <c r="K524" t="n">
-        <v>155.22</v>
+        <v>125.22</v>
+      </c>
+      <c r="L524" t="n">
+        <v>84.78</v>
+      </c>
+      <c r="M524" t="n">
+        <v>59.63</v>
       </c>
     </row>
     <row r="525">
@@ -18833,6 +21981,12 @@
       <c r="K525" t="n">
         <v>204.87</v>
       </c>
+      <c r="L525" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="M525" t="n">
+        <v>97.56</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
@@ -18868,6 +22022,12 @@
       <c r="K526" t="n">
         <v>170.97</v>
       </c>
+      <c r="L526" t="n">
+        <v>39.03</v>
+      </c>
+      <c r="M526" t="n">
+        <v>81.41</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
@@ -18903,6 +22063,12 @@
       <c r="K527" t="n">
         <v>240.03</v>
       </c>
+      <c r="L527" t="n">
+        <v>-30.03</v>
+      </c>
+      <c r="M527" t="n">
+        <v>114.3</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
@@ -18938,6 +22104,12 @@
       <c r="K528" t="n">
         <v>191.22</v>
       </c>
+      <c r="L528" t="n">
+        <v>18.78</v>
+      </c>
+      <c r="M528" t="n">
+        <v>91.06</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
@@ -18973,6 +22145,12 @@
       <c r="K529" t="n">
         <v>214.13</v>
       </c>
+      <c r="L529" t="n">
+        <v>-4.13</v>
+      </c>
+      <c r="M529" t="n">
+        <v>101.97</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
@@ -19008,6 +22186,12 @@
       <c r="K530" t="n">
         <v>207.4</v>
       </c>
+      <c r="L530" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M530" t="n">
+        <v>98.76000000000001</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
@@ -19043,6 +22227,12 @@
       <c r="K531" t="n">
         <v>229.73</v>
       </c>
+      <c r="L531" t="n">
+        <v>-19.73</v>
+      </c>
+      <c r="M531" t="n">
+        <v>109.4</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
@@ -19078,6 +22268,12 @@
       <c r="K532" t="n">
         <v>207.48</v>
       </c>
+      <c r="L532" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="M532" t="n">
+        <v>98.8</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
@@ -19113,6 +22309,12 @@
       <c r="K533" t="n">
         <v>72.03</v>
       </c>
+      <c r="L533" t="n">
+        <v>137.97</v>
+      </c>
+      <c r="M533" t="n">
+        <v>34.3</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
@@ -19148,6 +22350,12 @@
       <c r="K534" t="n">
         <v>127.93</v>
       </c>
+      <c r="L534" t="n">
+        <v>82.06999999999999</v>
+      </c>
+      <c r="M534" t="n">
+        <v>60.92</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
@@ -19181,7 +22389,13 @@
         <v>45637.74231481482</v>
       </c>
       <c r="K535" t="n">
-        <v>258.8</v>
+        <v>228.8</v>
+      </c>
+      <c r="L535" t="n">
+        <v>-18.8</v>
+      </c>
+      <c r="M535" t="n">
+        <v>108.95</v>
       </c>
     </row>
     <row r="536">
@@ -19218,6 +22432,12 @@
       <c r="K536" t="n">
         <v>203.38</v>
       </c>
+      <c r="L536" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="M536" t="n">
+        <v>96.84999999999999</v>
+      </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
@@ -19251,7 +22471,13 @@
         <v>45637.72112268519</v>
       </c>
       <c r="K537" t="n">
-        <v>228.4</v>
+        <v>198.4</v>
+      </c>
+      <c r="L537" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="M537" t="n">
+        <v>94.48</v>
       </c>
     </row>
     <row r="538">
@@ -19288,6 +22514,12 @@
       <c r="K538" t="n">
         <v>234.75</v>
       </c>
+      <c r="L538" t="n">
+        <v>-24.75</v>
+      </c>
+      <c r="M538" t="n">
+        <v>111.79</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
@@ -19323,6 +22555,12 @@
       <c r="K539" t="n">
         <v>218.88</v>
       </c>
+      <c r="L539" t="n">
+        <v>-8.880000000000001</v>
+      </c>
+      <c r="M539" t="n">
+        <v>104.23</v>
+      </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
@@ -19358,6 +22596,12 @@
       <c r="K540" t="n">
         <v>159.4</v>
       </c>
+      <c r="L540" t="n">
+        <v>50.6</v>
+      </c>
+      <c r="M540" t="n">
+        <v>75.90000000000001</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
@@ -19391,7 +22635,13 @@
         <v>45637.70916666667</v>
       </c>
       <c r="K541" t="n">
-        <v>211.18</v>
+        <v>181.18</v>
+      </c>
+      <c r="L541" t="n">
+        <v>28.82</v>
+      </c>
+      <c r="M541" t="n">
+        <v>86.28</v>
       </c>
     </row>
     <row r="542">
@@ -19428,6 +22678,12 @@
       <c r="K542" t="n">
         <v>212.72</v>
       </c>
+      <c r="L542" t="n">
+        <v>-2.72</v>
+      </c>
+      <c r="M542" t="n">
+        <v>101.3</v>
+      </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
@@ -19463,6 +22719,12 @@
       <c r="K543" t="n">
         <v>183.73</v>
       </c>
+      <c r="L543" t="n">
+        <v>26.27</v>
+      </c>
+      <c r="M543" t="n">
+        <v>87.48999999999999</v>
+      </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
@@ -19498,6 +22760,12 @@
       <c r="K544" t="n">
         <v>240.1</v>
       </c>
+      <c r="L544" t="n">
+        <v>-30.1</v>
+      </c>
+      <c r="M544" t="n">
+        <v>114.33</v>
+      </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
@@ -19533,6 +22801,12 @@
       <c r="K545" t="n">
         <v>238.77</v>
       </c>
+      <c r="L545" t="n">
+        <v>-28.77</v>
+      </c>
+      <c r="M545" t="n">
+        <v>113.7</v>
+      </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
@@ -19566,7 +22840,13 @@
         <v>45637.68858796296</v>
       </c>
       <c r="K546" t="n">
-        <v>181.55</v>
+        <v>151.55</v>
+      </c>
+      <c r="L546" t="n">
+        <v>58.45</v>
+      </c>
+      <c r="M546" t="n">
+        <v>72.17</v>
       </c>
     </row>
     <row r="547">
@@ -19603,6 +22883,12 @@
       <c r="K547" t="n">
         <v>212.97</v>
       </c>
+      <c r="L547" t="n">
+        <v>-2.97</v>
+      </c>
+      <c r="M547" t="n">
+        <v>101.41</v>
+      </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
@@ -19638,6 +22924,12 @@
       <c r="K548" t="n">
         <v>240.05</v>
       </c>
+      <c r="L548" t="n">
+        <v>-30.05</v>
+      </c>
+      <c r="M548" t="n">
+        <v>114.31</v>
+      </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
@@ -19673,6 +22965,12 @@
       <c r="K549" t="n">
         <v>240.07</v>
       </c>
+      <c r="L549" t="n">
+        <v>-30.07</v>
+      </c>
+      <c r="M549" t="n">
+        <v>114.32</v>
+      </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
@@ -19708,6 +23006,12 @@
       <c r="K550" t="n">
         <v>199.53</v>
       </c>
+      <c r="L550" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="M550" t="n">
+        <v>95.01000000000001</v>
+      </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
@@ -19741,7 +23045,13 @@
         <v>45637.69293981481</v>
       </c>
       <c r="K551" t="n">
-        <v>187.82</v>
+        <v>157.82</v>
+      </c>
+      <c r="L551" t="n">
+        <v>52.18</v>
+      </c>
+      <c r="M551" t="n">
+        <v>75.15000000000001</v>
       </c>
     </row>
     <row r="552">
@@ -19778,6 +23088,12 @@
       <c r="K552" t="n">
         <v>205.02</v>
       </c>
+      <c r="L552" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="M552" t="n">
+        <v>97.63</v>
+      </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
@@ -19813,6 +23129,12 @@
       <c r="K553" t="n">
         <v>239.82</v>
       </c>
+      <c r="L553" t="n">
+        <v>-29.82</v>
+      </c>
+      <c r="M553" t="n">
+        <v>114.2</v>
+      </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
@@ -19848,6 +23170,12 @@
       <c r="K554" t="n">
         <v>240.22</v>
       </c>
+      <c r="L554" t="n">
+        <v>-30.22</v>
+      </c>
+      <c r="M554" t="n">
+        <v>114.39</v>
+      </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
@@ -19883,6 +23211,12 @@
       <c r="K555" t="n">
         <v>136.47</v>
       </c>
+      <c r="L555" t="n">
+        <v>73.53</v>
+      </c>
+      <c r="M555" t="n">
+        <v>64.98999999999999</v>
+      </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
@@ -19918,6 +23252,12 @@
       <c r="K556" t="n">
         <v>169.2</v>
       </c>
+      <c r="L556" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="M556" t="n">
+        <v>80.56999999999999</v>
+      </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
@@ -19953,6 +23293,12 @@
       <c r="K557" t="n">
         <v>175.52</v>
       </c>
+      <c r="L557" t="n">
+        <v>34.48</v>
+      </c>
+      <c r="M557" t="n">
+        <v>83.58</v>
+      </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
@@ -19988,6 +23334,12 @@
       <c r="K558" t="n">
         <v>237.22</v>
       </c>
+      <c r="L558" t="n">
+        <v>-27.22</v>
+      </c>
+      <c r="M558" t="n">
+        <v>112.96</v>
+      </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
@@ -20023,6 +23375,12 @@
       <c r="K559" t="n">
         <v>210.42</v>
       </c>
+      <c r="L559" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="M559" t="n">
+        <v>100.2</v>
+      </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
@@ -20058,6 +23416,12 @@
       <c r="K560" t="n">
         <v>232.32</v>
       </c>
+      <c r="L560" t="n">
+        <v>-22.32</v>
+      </c>
+      <c r="M560" t="n">
+        <v>110.63</v>
+      </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
@@ -20093,6 +23457,12 @@
       <c r="K561" t="n">
         <v>239.78</v>
       </c>
+      <c r="L561" t="n">
+        <v>-29.78</v>
+      </c>
+      <c r="M561" t="n">
+        <v>114.18</v>
+      </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
@@ -20128,6 +23498,12 @@
       <c r="K562" t="n">
         <v>240.17</v>
       </c>
+      <c r="L562" t="n">
+        <v>-30.17</v>
+      </c>
+      <c r="M562" t="n">
+        <v>114.37</v>
+      </c>
     </row>
     <row r="563">
       <c r="A563" t="n">
@@ -20163,6 +23539,12 @@
       <c r="K563" t="n">
         <v>240.07</v>
       </c>
+      <c r="L563" t="n">
+        <v>-30.07</v>
+      </c>
+      <c r="M563" t="n">
+        <v>114.32</v>
+      </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
@@ -20198,6 +23580,12 @@
       <c r="K564" t="n">
         <v>239.2</v>
       </c>
+      <c r="L564" t="n">
+        <v>-29.2</v>
+      </c>
+      <c r="M564" t="n">
+        <v>113.9</v>
+      </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
@@ -20233,6 +23621,12 @@
       <c r="K565" t="n">
         <v>239.22</v>
       </c>
+      <c r="L565" t="n">
+        <v>-29.22</v>
+      </c>
+      <c r="M565" t="n">
+        <v>113.91</v>
+      </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
@@ -20268,6 +23662,12 @@
       <c r="K566" t="n">
         <v>231.62</v>
       </c>
+      <c r="L566" t="n">
+        <v>-21.62</v>
+      </c>
+      <c r="M566" t="n">
+        <v>110.3</v>
+      </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
@@ -20301,7 +23701,13 @@
         <v>45637.74755787037</v>
       </c>
       <c r="K567" t="n">
-        <v>266.37</v>
+        <v>236.37</v>
+      </c>
+      <c r="L567" t="n">
+        <v>-26.37</v>
+      </c>
+      <c r="M567" t="n">
+        <v>112.56</v>
       </c>
     </row>
     <row r="568">
@@ -20338,6 +23744,12 @@
       <c r="K568" t="n">
         <v>187.92</v>
       </c>
+      <c r="L568" t="n">
+        <v>22.08</v>
+      </c>
+      <c r="M568" t="n">
+        <v>89.48999999999999</v>
+      </c>
     </row>
     <row r="569">
       <c r="A569" t="n">
@@ -20373,6 +23785,12 @@
       <c r="K569" t="n">
         <v>171.08</v>
       </c>
+      <c r="L569" t="n">
+        <v>38.92</v>
+      </c>
+      <c r="M569" t="n">
+        <v>81.47</v>
+      </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
@@ -20406,7 +23824,13 @@
         <v>45637.74201388889</v>
       </c>
       <c r="K570" t="n">
-        <v>229.38</v>
+        <v>221.38</v>
+      </c>
+      <c r="L570" t="n">
+        <v>-11.38</v>
+      </c>
+      <c r="M570" t="n">
+        <v>105.42</v>
       </c>
     </row>
   </sheetData>
